--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>CICLO: 2017-1B</t>
+  </si>
+  <si>
+    <t>Estudiante 1</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -1424,20 +1433,20 @@
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1495,17 +1504,17 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!S6</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2">
         <v>17</v>
       </c>
       <c r="J2" s="11">
         <f>ROUNDDOWN( D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1683,7 +1692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1755,7 +1764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1791,7 +1800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1863,7 +1872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1897,7 +1906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="15">
         <f t="shared" ref="D14:J14" si="1">AVERAGE(D2:D13)</f>
         <v>16.25</v>
@@ -1916,7 +1925,7 @@
       </c>
       <c r="H14" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="1"/>
@@ -1924,7 +1933,7 @@
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>12.666666666666666</v>
+        <v>12.833333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -1943,18 +1952,18 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="18" width="9.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
@@ -1963,12 +1972,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>77</v>
       </c>
@@ -1994,7 +2003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2044,7 +2053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
@@ -2103,33 +2112,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:Q6,"") - COUNTIF(D6:Q6,"F") - COUNTIF(D6:Q6,"T")/2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -2155,7 +2198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -2181,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -2207,7 +2250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -2233,7 +2276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -2259,7 +2302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -2285,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -2311,7 +2354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -2337,7 +2380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -2363,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2389,7 +2432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2415,29 +2458,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="38">
         <f t="shared" ref="C18:R18" si="1">COUNTIF(C6:C17,"=P")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="39">
         <f t="shared" si="1"/>
@@ -2453,38 +2496,38 @@
       </c>
       <c r="K18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>14</v>
       </c>
@@ -2553,29 +2596,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="38">
         <f t="shared" ref="C20:R20" si="3">COUNTIF(C6:C17,"=F") + COUNTIF(C6:C17,"=")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="39">
         <f t="shared" si="3"/>
@@ -2591,35 +2634,35 @@
       </c>
       <c r="K20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2637,16 +2680,16 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
@@ -2660,7 +2703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2668,7 +2711,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2676,7 +2719,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2684,7 +2727,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2692,7 +2735,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2700,7 +2743,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2708,7 +2751,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2716,7 +2759,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2724,7 +2767,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2732,7 +2775,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2740,7 +2783,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2762,17 +2805,17 @@
       <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3"/>
-    <col min="5" max="6" width="11.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="6" width="11.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
@@ -2795,7 +2838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2817,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2839,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2861,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2883,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2905,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2925,7 +2968,7 @@
       </c>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2945,7 +2988,7 @@
       </c>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2965,7 +3008,7 @@
       </c>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2985,7 +3028,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3005,7 +3048,7 @@
       </c>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3027,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3063,17 +3106,17 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
@@ -3099,7 +3142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3122,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3145,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3168,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3191,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3214,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3237,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3260,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3283,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3306,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3329,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3352,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3364,7 +3407,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3376,7 +3419,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3388,7 +3431,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3400,7 +3443,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3412,7 +3455,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3438,14 +3481,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -3471,7 +3514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3500,7 +3543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3528,7 +3571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3556,7 +3599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3584,7 +3627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -3612,7 +3655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3640,7 +3683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3668,7 +3711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3696,7 +3739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3724,7 +3767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3752,7 +3795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3780,7 +3823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3808,7 +3851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -3850,13 +3893,13 @@
       <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="s">
         <v>34</v>
       </c>
@@ -3864,17 +3907,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>60</v>
       </c>
@@ -3882,12 +3925,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
         <v>60</v>
       </c>
@@ -3910,15 +3953,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>17</v>
       </c>
@@ -3932,7 +3975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3941,7 +3984,7 @@
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3950,7 +3993,7 @@
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3959,7 +4002,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3968,7 +4011,7 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3977,7 +4020,7 @@
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Exposición" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$R$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$P$23</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -102,172 +102,121 @@
     <t>PART-CLA</t>
   </si>
   <si>
-    <t>Cuesta Barreto,Fernando Giusepi</t>
-  </si>
-  <si>
-    <t>Flores Panaifo,Josselyn Melchorita</t>
-  </si>
-  <si>
-    <t>Peñaranda Huerta,Jesús Eduardo</t>
-  </si>
-  <si>
     <t xml:space="preserve">     P: Presente           T: Tardanza        F: Falta</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>PARTICIPACION</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>SERVICE</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>CTRL</t>
+  </si>
+  <si>
+    <t>FUNC.</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>TEMA</t>
+  </si>
+  <si>
+    <t>ESTUDIANTES</t>
+  </si>
+  <si>
+    <t>EX-FINAL</t>
+  </si>
+  <si>
+    <t>ASIST-PUNT</t>
+  </si>
+  <si>
+    <t>WEB SERVICE</t>
+  </si>
+  <si>
+    <t>CICLO: 2017-1B</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ALDAVE ROMO, ANGEL</t>
+  </si>
+  <si>
+    <t>ALVARADO AGUADO, LUCAS</t>
+  </si>
+  <si>
+    <t>CAMUS RUEDA, JULISSA</t>
+  </si>
+  <si>
+    <t>CHIPANA AVENDAÑO, RICHARD</t>
+  </si>
+  <si>
+    <t>GONZALES SULCA, CARMEN</t>
+  </si>
+  <si>
+    <t>MAMANI POCCO, FRANK</t>
+  </si>
+  <si>
+    <t>MELGAR PRADA, JOSE</t>
+  </si>
+  <si>
+    <t>MONZON VILLA, CARLOS</t>
+  </si>
+  <si>
+    <t>MORENO NOLAZCO, ROBERTO</t>
+  </si>
+  <si>
+    <t>PARODI GUERRERO, VICTOR</t>
+  </si>
+  <si>
+    <t>PORTOCARRERO MIRANDA, PERCY</t>
+  </si>
+  <si>
+    <t>RAMOS PIO, JUNIOR</t>
+  </si>
+  <si>
+    <t>SAAVEDRA VELIZ, LUIS</t>
+  </si>
+  <si>
+    <t>SANCHEZ BEJAR, JORGE</t>
+  </si>
+  <si>
+    <t>SARMIENTO TRAVI, CHRISTIAN</t>
+  </si>
+  <si>
+    <t>VARGAS SOTO, JUAN</t>
+  </si>
+  <si>
+    <t>VILCHEZ MELENDEZ, ZANY</t>
+  </si>
+  <si>
+    <t>ZAMBRANO BURGOS, MIGUEL</t>
+  </si>
+  <si>
     <t>EF</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>EXPO</t>
   </si>
   <si>
     <t>P2</t>
-  </si>
-  <si>
-    <t>PARTICIPACION</t>
-  </si>
-  <si>
-    <t>Alomía Monjaraz,Guillermo Abel</t>
-  </si>
-  <si>
-    <t>Amado Garfias,Alonso Javier</t>
-  </si>
-  <si>
-    <t>Becerra Gutierrez,Walter  Martin</t>
-  </si>
-  <si>
-    <t>Benites Luna,Carlos Alberto</t>
-  </si>
-  <si>
-    <t>Guerrero Guevara,Ze Carlos Esteban</t>
-  </si>
-  <si>
-    <t>Ramos Sanchez,Percy Eduardo</t>
-  </si>
-  <si>
-    <t>Wong Herrera,David</t>
-  </si>
-  <si>
-    <t>Zavala Alvarez,Carlos Andoni</t>
-  </si>
-  <si>
-    <t>11-ENE</t>
-  </si>
-  <si>
-    <t>16-ENE</t>
-  </si>
-  <si>
-    <t>18-ENE</t>
-  </si>
-  <si>
-    <t>23-ENE</t>
-  </si>
-  <si>
-    <t>25-ENE</t>
-  </si>
-  <si>
-    <t>30-ENE</t>
-  </si>
-  <si>
-    <t>01-FEB</t>
-  </si>
-  <si>
-    <t>06-FEB</t>
-  </si>
-  <si>
-    <t>08-FEB</t>
-  </si>
-  <si>
-    <t>09-ENE</t>
-  </si>
-  <si>
-    <t>13-FEB</t>
-  </si>
-  <si>
-    <t>15-FEB</t>
-  </si>
-  <si>
-    <t>20-FEB</t>
-  </si>
-  <si>
-    <t>22-FEB</t>
-  </si>
-  <si>
-    <t>27-FEB</t>
-  </si>
-  <si>
-    <t>01-MAR</t>
-  </si>
-  <si>
-    <t>EXPO</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Suares Infante, Rocio</t>
-  </si>
-  <si>
-    <t>Certificado</t>
-  </si>
-  <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>MODEL</t>
-  </si>
-  <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
-    <t>PRUEBA</t>
-  </si>
-  <si>
-    <t>VIEW</t>
-  </si>
-  <si>
-    <t>CTRL</t>
-  </si>
-  <si>
-    <t>FUNC.</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>HORA</t>
-  </si>
-  <si>
-    <t>TEMA</t>
-  </si>
-  <si>
-    <t>ESTUDIANTES</t>
-  </si>
-  <si>
-    <t>EX-FINAL</t>
-  </si>
-  <si>
-    <t>ASIST-PUNT</t>
-  </si>
-  <si>
-    <t>WEB SERVICE</t>
-  </si>
-  <si>
-    <t>CICLO: 2017-1B</t>
-  </si>
-  <si>
-    <t>Estudiante 1</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
 </sst>
 </file>
@@ -358,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,13 +416,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,31 +439,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -529,8 +463,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1425,28 +1376,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1469,16 +1420,16 @@
         <v>24</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1486,35 +1437,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F2" s="11">
-        <f>PRACT2!I3</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
         <f>PARTICIPACION!F2</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>ASISTENCIA!S6</f>
-        <v>17</v>
+        <f>ASISTENCIA!Q6</f>
+        <v>7</v>
       </c>
       <c r="I2" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J2" s="11">
         <f>ROUNDDOWN( D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1522,35 +1472,34 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f>PRACT2!I4</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <f>PARTICIPACION!F3</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>ASISTENCIA!S7</f>
-        <v>5</v>
+        <f>ASISTENCIA!Q7</f>
+        <v>7</v>
       </c>
       <c r="I3" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J3" s="11">
-        <f t="shared" ref="J3:J13" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J3:J21" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1558,35 +1507,34 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F4" s="11">
-        <f>PRACT2!I5</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>PARTICIPACION!F4</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>ASISTENCIA!S8</f>
-        <v>5</v>
+        <f>ASISTENCIA!Q8</f>
+        <v>7</v>
       </c>
       <c r="I4" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1594,35 +1542,34 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F5" s="11">
-        <f>PRACT2!I6</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>PARTICIPACION!F5</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f>ASISTENCIA!S9</f>
-        <v>5</v>
+        <f>ASISTENCIA!Q9</f>
+        <v>7</v>
       </c>
       <c r="I5" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1630,310 +1577,474 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" s="11">
-        <f>PRACT2!I7</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>PARTICIPACION!F6</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>ASISTENCIA!S10</f>
-        <v>5</v>
+        <f>ASISTENCIA!Q10</f>
+        <v>7</v>
       </c>
       <c r="I6" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F7" s="11">
-        <f>PRACT2!I8</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <f>PARTICIPACION!F7</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <f>ASISTENCIA!S11</f>
-        <v>5</v>
+        <f>ASISTENCIA!Q11</f>
+        <v>7</v>
       </c>
       <c r="I7" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="11">
-        <f>PRACT2!I9</f>
-        <v>19</v>
-      </c>
-      <c r="G8" s="2">
-        <f>PARTICIPACION!F8</f>
-        <v>17</v>
-      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>ASISTENCIA!S12</f>
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>15</v>
-      </c>
+        <f>ASISTENCIA!Q12</f>
+        <v>7</v>
+      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2">
-        <v>15</v>
-      </c>
-      <c r="F9" s="11">
-        <f>PRACT2!I10</f>
-        <v>10</v>
-      </c>
-      <c r="G9" s="2">
-        <f>PARTICIPACION!F9</f>
-        <v>8</v>
-      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <f>ASISTENCIA!S13</f>
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>16</v>
-      </c>
+        <f>ASISTENCIA!Q13</f>
+        <v>7</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="11">
-        <f>PRACT2!I11</f>
-        <v>8</v>
-      </c>
-      <c r="G10" s="2">
-        <f>PARTICIPACION!F10</f>
-        <v>15</v>
-      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <f>ASISTENCIA!S14</f>
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>9</v>
-      </c>
+        <f>ASISTENCIA!Q14</f>
+        <v>7</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11">
-        <f>PRACT2!I12</f>
-        <v>19</v>
-      </c>
-      <c r="G11" s="2">
-        <f>PARTICIPACION!F11</f>
-        <v>14</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2">
-        <f>ASISTENCIA!S15</f>
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>16</v>
-      </c>
+        <f>ASISTENCIA!Q15</f>
+        <v>7</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2">
-        <v>19</v>
-      </c>
-      <c r="F12" s="11">
-        <f>PRACT2!I13</f>
-        <v>18</v>
-      </c>
-      <c r="G12" s="2">
-        <f>PARTICIPACION!F12</f>
-        <v>18</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <f>ASISTENCIA!S16</f>
-        <v>5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>12</v>
-      </c>
+        <f>ASISTENCIA!Q16</f>
+        <v>7</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="11">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <f>ASISTENCIA!Q17</f>
+        <v>7</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <f>ASISTENCIA!Q18</f>
+        <v>7</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <f>ASISTENCIA!Q19</f>
+        <v>7</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <f>PRACT2!I14</f>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f>PARTICIPACION!F8</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f>ASISTENCIA!Q20</f>
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f>PARTICIPACION!F9</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <f>ASISTENCIA!Q21</f>
+        <v>7</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>8</v>
       </c>
-      <c r="G13" s="2">
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f>PARTICIPACION!F10</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f>ASISTENCIA!Q22</f>
+        <v>7</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f>PARTICIPACION!F11</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <f>ASISTENCIA!Q23</f>
+        <v>7</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <f>PARTICIPACION!F12</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <f>ASISTENCIA!Q24</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
         <f>PARTICIPACION!F13</f>
-        <v>15</v>
-      </c>
-      <c r="H13" s="2">
-        <f>ASISTENCIA!S17</f>
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>14</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="15">
-        <f t="shared" ref="D14:J14" si="1">AVERAGE(D2:D13)</f>
-        <v>16.25</v>
-      </c>
-      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <f>ASISTENCIA!Q25</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D22" s="15">
+        <f t="shared" ref="D22:J22" si="1">AVERAGE(D2:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="15">
         <f t="shared" si="1"/>
-        <v>10.916666666666666</v>
-      </c>
-      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
         <f t="shared" si="1"/>
-        <v>13.166666666666666</v>
-      </c>
-      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
         <f t="shared" si="1"/>
-        <v>15.583333333333334</v>
-      </c>
-      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I14" s="15">
+        <v>6.3</v>
+      </c>
+      <c r="I22" s="15">
         <f t="shared" si="1"/>
-        <v>13.583333333333334</v>
-      </c>
-      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>12.833333333333334</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -1946,64 +2057,61 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="18" width="9.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="16" width="9.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2046,138 +2154,98 @@
       <c r="P4" s="3">
         <v>14</v>
       </c>
-      <c r="Q4" s="3">
-        <v>15</v>
-      </c>
-      <c r="R4" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="22" t="s">
+      <c r="C5" s="43">
+        <v>42934</v>
+      </c>
+      <c r="D5" s="43">
+        <v>42936</v>
+      </c>
+      <c r="E5" s="43">
+        <v>42941</v>
+      </c>
+      <c r="F5" s="43">
+        <v>42943</v>
+      </c>
+      <c r="G5" s="43">
+        <v>42948</v>
+      </c>
+      <c r="H5" s="43">
+        <v>42950</v>
+      </c>
+      <c r="I5" s="43">
+        <v>42955</v>
+      </c>
+      <c r="J5" s="43">
+        <v>42957</v>
+      </c>
+      <c r="K5" s="43">
+        <v>42962</v>
+      </c>
+      <c r="L5" s="43">
+        <v>42964</v>
+      </c>
+      <c r="M5" s="43">
+        <v>42969</v>
+      </c>
+      <c r="N5" s="43">
+        <v>42971</v>
+      </c>
+      <c r="O5" s="43">
+        <v>42976</v>
+      </c>
+      <c r="P5" s="43">
+        <v>42978</v>
+      </c>
+      <c r="Q5" s="44" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C6:Q6,"") - COUNTIF(D6:Q6,"F") - COUNTIF(D6:Q6,"T")/2,0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2191,19 +2259,21 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="2">
-        <f t="shared" ref="S7:S17" si="0">ROUNDUP( 20  - COUNTIF(C7:Q7,"") - COUNTIF(D7:Q7,"F") - COUNTIF(D7:Q7,"T")/2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C7:P7,"") - COUNTIF(D7:P7,"F") - COUNTIF(D7:P7,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -2217,19 +2287,21 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C8:P8,"") - COUNTIF(D8:P8,"F") - COUNTIF(D8:P8,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2243,19 +2315,21 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C9:P9,"") - COUNTIF(D9:P9,"F") - COUNTIF(D9:P9,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -2269,19 +2343,21 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C10:P10,"") - COUNTIF(D10:P10,"F") - COUNTIF(D10:P10,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2295,19 +2371,21 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C11:P11,"") - COUNTIF(D11:P11,"F") - COUNTIF(D11:P11,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -2321,19 +2399,21 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C12:P12,"") - COUNTIF(D12:P12,"F") - COUNTIF(D12:P12,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -2347,19 +2427,21 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C13:P13,"") - COUNTIF(D13:P13,"F") - COUNTIF(D13:P13,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2373,19 +2455,21 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C14:P14,"") - COUNTIF(D14:P14,"F") - COUNTIF(D14:P14,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2399,19 +2483,21 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C15:P15,"") - COUNTIF(D15:P15,"F") - COUNTIF(D15:P15,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -2425,19 +2511,21 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C16:P16,"") - COUNTIF(D16:P16,"F") - COUNTIF(D16:P16,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -2451,218 +2539,360 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="32" t="s">
+      <c r="Q17" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C17:P17,"") - COUNTIF(D17:P17,"F") - COUNTIF(D17:P17,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C18:P18,"") - COUNTIF(D18:P18,"F") - COUNTIF(D18:P18,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C19:P19,"") - COUNTIF(D19:P19,"F") - COUNTIF(D19:P19,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="C18" s="38">
-        <f t="shared" ref="C18:R18" si="1">COUNTIF(C6:C17,"=P")</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="39">
+      <c r="B20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C20:P20,"") - COUNTIF(D20:P20,"F") - COUNTIF(D20:P20,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C21:P21,"") - COUNTIF(D21:P21,"F") - COUNTIF(D21:P21,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C22:P22,"") - COUNTIF(D22:P22,"F") - COUNTIF(D22:P22,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="2">
+        <f>ROUNDUP( 20  - COUNTIF(C23:P23,"") - COUNTIF(D23:P23,"F") - COUNTIF(D23:P23,"T")/2,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="38">
+        <f t="shared" ref="C24:P24" si="0">COUNTIF(C6:C23,"=P")</f>
+        <v>18</v>
+      </c>
+      <c r="D24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="38">
+        <f t="shared" ref="C25:P25" si="1">COUNTIF(C6:C23,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="39">
+        <v>0</v>
+      </c>
+      <c r="E25" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="39">
+        <v>0</v>
+      </c>
+      <c r="F25" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="39">
+        <v>0</v>
+      </c>
+      <c r="G25" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H18" s="39">
+        <v>0</v>
+      </c>
+      <c r="H25" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I25" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J25" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K25" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="39">
+        <v>0</v>
+      </c>
+      <c r="L25" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="39">
+        <v>0</v>
+      </c>
+      <c r="M25" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="39">
+        <v>0</v>
+      </c>
+      <c r="N25" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="39">
+        <v>0</v>
+      </c>
+      <c r="O25" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="46">
+        <v>0</v>
+      </c>
+      <c r="P25" s="39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R18" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="38">
-        <f t="shared" ref="C19:R19" si="2">COUNTIF(C6:C17,"=T")</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="38">
+        <f t="shared" ref="C26:P26" si="2">COUNTIF(C6:C23,"=F") + COUNTIF(C6:C23,"=")</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="39">
+        <v>18</v>
+      </c>
+      <c r="E26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="39">
+        <v>18</v>
+      </c>
+      <c r="F26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="39">
+        <v>18</v>
+      </c>
+      <c r="G26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="39">
+        <v>18</v>
+      </c>
+      <c r="H26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="39">
+        <v>18</v>
+      </c>
+      <c r="I26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="39">
+        <v>18</v>
+      </c>
+      <c r="J26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="39">
+        <v>18</v>
+      </c>
+      <c r="K26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="39">
+        <v>18</v>
+      </c>
+      <c r="L26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="39">
+        <v>18</v>
+      </c>
+      <c r="M26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="39">
+        <v>18</v>
+      </c>
+      <c r="N26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="39">
+        <v>18</v>
+      </c>
+      <c r="O26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="39">
+        <v>18</v>
+      </c>
+      <c r="P26" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="38">
-        <f t="shared" ref="C20:R20" si="3">COUNTIF(C6:C17,"=F") + COUNTIF(C6:C17,"=")</f>
-        <v>11</v>
-      </c>
-      <c r="D20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="E20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="F20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="G20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="H20" s="39">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="I20" s="39">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="J20" s="39">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="K20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="L20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="M20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="N20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="O20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="P20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="Q20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="R20" s="39">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2683,111 +2913,111 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
@@ -2802,193 +3032,193 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="6" width="11.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3"/>
+    <col min="5" max="6" width="11.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D2" s="12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="12">
         <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0) + G2</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D3" s="12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F13" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D5" s="12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="12">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
         <v>0</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E7" s="12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2997,96 +3227,96 @@
         <v>0</v>
       </c>
       <c r="D9" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="12">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D12" s="12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="10">
         <v>0</v>
       </c>
       <c r="D13" s="10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -3103,50 +3333,50 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12">
         <v>0</v>
@@ -3165,12 +3395,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="12">
         <v>0</v>
       </c>
@@ -3188,11 +3418,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12">
         <v>0</v>
@@ -3211,11 +3441,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12">
         <v>0</v>
@@ -3234,11 +3464,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18">
         <v>0</v>
@@ -3257,11 +3487,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12">
         <v>0</v>
@@ -3280,11 +3510,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12">
         <v>0</v>
@@ -3303,11 +3533,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12">
         <v>0</v>
@@ -3326,11 +3556,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18">
         <v>0</v>
@@ -3349,11 +3579,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18">
         <v>0</v>
@@ -3372,11 +3602,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18">
         <v>0</v>
@@ -3395,76 +3625,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="10"/>
     </row>
   </sheetData>
@@ -3481,14 +3711,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" customWidth="1"/>
+    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -3514,7 +3744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3522,32 +3752,32 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="10">
         <v>2</v>
       </c>
@@ -3571,11 +3801,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="10">
         <v>2</v>
       </c>
@@ -3599,11 +3829,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="10">
         <v>2</v>
       </c>
@@ -3627,11 +3857,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="10">
         <v>2</v>
       </c>
@@ -3655,11 +3885,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10">
         <v>2</v>
       </c>
@@ -3683,11 +3913,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10">
         <v>2</v>
       </c>
@@ -3711,11 +3941,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="10">
         <v>2</v>
       </c>
@@ -3739,11 +3969,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="10">
         <v>2</v>
       </c>
@@ -3767,11 +3997,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="10">
         <v>2</v>
       </c>
@@ -3795,11 +4025,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10">
         <v>2</v>
       </c>
@@ -3823,11 +4053,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="10">
         <v>2</v>
       </c>
@@ -3851,11 +4081,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="10">
         <v>2</v>
       </c>
@@ -3887,55 +4117,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <sortState ref="A1:A19">
     <sortCondition ref="A1"/>
   </sortState>
@@ -3949,82 +4141,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="35">
         <v>0.2986111111111111</v>
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="35">
         <v>0.31944444444444448</v>
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="35">
         <v>0.34027777777777801</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="35">
         <v>0.36111111111111099</v>
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="35">
         <v>0.38194444444444497</v>
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="35">
         <v>0.40277777777777801</v>
       </c>
       <c r="C7" s="19"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -13,11 +13,11 @@
     <sheet name="PARTICIPACION" sheetId="4" r:id="rId4"/>
     <sheet name="INVESTIGACION" sheetId="5" r:id="rId5"/>
     <sheet name="PRACT2" sheetId="9" r:id="rId6"/>
-    <sheet name="ESTUDIANTES" sheetId="7" r:id="rId7"/>
-    <sheet name="Exposición" sheetId="10" r:id="rId8"/>
+    <sheet name="Exposición" sheetId="10" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$P$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$P$26</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -217,6 +217,78 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Aldave Romo, Angel Enrique</t>
+  </si>
+  <si>
+    <t>Alvarado Aguado, Lucas</t>
+  </si>
+  <si>
+    <t>Camus Rueda, Julissa Carolina</t>
+  </si>
+  <si>
+    <t>Chipana Avendaño, Richard</t>
+  </si>
+  <si>
+    <t>Gonzales Sulca, Carmen Leydi</t>
+  </si>
+  <si>
+    <t>Mamani Pocco, Frank Reynaldo</t>
+  </si>
+  <si>
+    <t>Medina Moscoso, Daniel Jesus</t>
+  </si>
+  <si>
+    <t>Melgar Prada, Jose Luis</t>
+  </si>
+  <si>
+    <t>Monzon Villa, Carlos Eduardo</t>
+  </si>
+  <si>
+    <t>Moreno Nolazco, Roberto Carlos</t>
+  </si>
+  <si>
+    <t>Parodi Guerrero, Victor Fernando</t>
+  </si>
+  <si>
+    <t>Pasapera Aguilar, Marilu</t>
+  </si>
+  <si>
+    <t>Portocarrero Miranda, Percy Arturo</t>
+  </si>
+  <si>
+    <t>Ramos Pio, Junior Ismael</t>
+  </si>
+  <si>
+    <t>Saavedra Veliz, Luis Gustavo</t>
+  </si>
+  <si>
+    <t>Sanchez Bejar, Jorge</t>
+  </si>
+  <si>
+    <t>Sarmiento Travi, Christian</t>
+  </si>
+  <si>
+    <t>Silva Polo, Cesar Rolando</t>
+  </si>
+  <si>
+    <t>Vilchez Melendez, Zany Cristina</t>
+  </si>
+  <si>
+    <t>Zambrano Burgos, Miguel Angel</t>
+  </si>
+  <si>
+    <t>Vargas Soto, Juan Carlos</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -534,561 +606,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="http://campus.ucsur.edu.pe/cs/HR90PRD/cache/PT_PIXEL_ESP_1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="http://campus.ucsur.edu.pe/cs/HR90PRD/cache/PT_PIXEL_ESP_1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="http://campus.ucsur.edu.pe/cs/HR90PRD/cache/PT_PIXEL_ESP_1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="571500"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4" descr="http://campus.ucsur.edu.pe/cs/HR90PRD/cache/PT_PIXEL_ESP_1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="762000"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5" descr="http://campus.ucsur.edu.pe/cs/HR90PRD/cache/PT_PIXEL_ESP_1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="952500"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6" descr="http://campus.ucsur.edu.pe/cs/HR90PRD/cache/PT_PIXEL_ESP_1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1143000"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7" descr="http://campus.ucsur.edu.pe/cs/HR90PRD/cache/PT_PIXEL_ESP_1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1333500"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8" descr="http://campus.ucsur.edu.pe/cs/HR90PRD/cache/PT_PIXEL_ESP_1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1524000"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9" descr="http://campus.ucsur.edu.pe/cs/HR90PRD/cache/PT_PIXEL_ESP_1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1714500"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10" descr="http://campus.ucsur.edu.pe/cs/HR90PRD/cache/PT_PIXEL_ESP_1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="1905000"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1454,7 +971,7 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -1523,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>ASISTENCIA!Q8</f>
+        <f>ASISTENCIA!Q11</f>
         <v>7</v>
       </c>
       <c r="I4" s="2">
@@ -1558,8 +1075,8 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f>ASISTENCIA!Q9</f>
-        <v>7</v>
+        <f>ASISTENCIA!Q12</f>
+        <v>8</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1593,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>ASISTENCIA!Q10</f>
+        <f>ASISTENCIA!Q13</f>
         <v>7</v>
       </c>
       <c r="I6" s="2">
@@ -1626,8 +1143,8 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <f>ASISTENCIA!Q11</f>
-        <v>7</v>
+        <f>ASISTENCIA!Q14</f>
+        <v>8</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1650,8 +1167,8 @@
       <c r="F8" s="11"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>ASISTENCIA!Q12</f>
-        <v>7</v>
+        <f>ASISTENCIA!Q15</f>
+        <v>8</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="11">
@@ -1672,8 +1189,8 @@
       <c r="F9" s="11"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <f>ASISTENCIA!Q13</f>
-        <v>7</v>
+        <f>ASISTENCIA!Q16</f>
+        <v>8</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="11">
@@ -1694,7 +1211,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <f>ASISTENCIA!Q14</f>
+        <f>ASISTENCIA!Q17</f>
         <v>7</v>
       </c>
       <c r="I10" s="2"/>
@@ -1716,8 +1233,8 @@
       <c r="F11" s="11"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
-        <f>ASISTENCIA!Q15</f>
-        <v>7</v>
+        <f>ASISTENCIA!Q18</f>
+        <v>8</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="11">
@@ -1738,7 +1255,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <f>ASISTENCIA!Q16</f>
+        <f>ASISTENCIA!Q19</f>
         <v>7</v>
       </c>
       <c r="I12" s="2"/>
@@ -1760,8 +1277,8 @@
       <c r="F13" s="11"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
-        <f>ASISTENCIA!Q17</f>
-        <v>7</v>
+        <f>ASISTENCIA!Q20</f>
+        <v>8</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="11">
@@ -1782,7 +1299,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
-        <f>ASISTENCIA!Q18</f>
+        <f>ASISTENCIA!Q21</f>
         <v>7</v>
       </c>
       <c r="I14" s="2"/>
@@ -1804,8 +1321,8 @@
       <c r="F15" s="11"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2">
-        <f>ASISTENCIA!Q19</f>
-        <v>7</v>
+        <f>ASISTENCIA!Q22</f>
+        <v>8</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
@@ -1837,8 +1354,8 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <f>ASISTENCIA!Q20</f>
-        <v>7</v>
+        <f>ASISTENCIA!Q23</f>
+        <v>8</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -1872,8 +1389,8 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <f>ASISTENCIA!Q21</f>
-        <v>7</v>
+        <f>ASISTENCIA!Q24</f>
+        <v>8</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1907,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <f>ASISTENCIA!Q22</f>
+        <f>ASISTENCIA!Q25</f>
         <v>7</v>
       </c>
       <c r="I18" s="2">
@@ -1942,8 +1459,8 @@
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <f>ASISTENCIA!Q23</f>
-        <v>7</v>
+        <f>ASISTENCIA!Q26</f>
+        <v>8</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -1975,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <f>ASISTENCIA!Q24</f>
+        <f>ASISTENCIA!Q27</f>
         <v>0</v>
       </c>
       <c r="I20" s="2">
@@ -2006,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <f>ASISTENCIA!Q25</f>
+        <f>ASISTENCIA!Q28</f>
         <v>0</v>
       </c>
       <c r="I21" s="2">
@@ -2036,7 +1553,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>6.3</v>
+        <v>6.85</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -2057,20 +1574,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:B23"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="16" width="9.6640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="16" width="9.6640625" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2110,6 +1628,9 @@
       <c r="O3" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
@@ -2213,12 +1734,14 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2232,8 +1755,8 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" ref="Q6:Q26" si="0">ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2241,12 +1764,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2260,7 +1785,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C7:P7,"") - COUNTIF(D7:P7,"F") - COUNTIF(D7:P7,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2269,12 +1794,14 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2288,8 +1815,8 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C8:P8,"") - COUNTIF(D8:P8,"F") - COUNTIF(D8:P8,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2297,12 +1824,14 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2316,21 +1845,23 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C9:P9,"") - COUNTIF(D9:P9,"F") - COUNTIF(D9:P9,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2344,8 +1875,8 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C10:P10,"") - COUNTIF(D10:P10,"F") - COUNTIF(D10:P10,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2353,12 +1884,14 @@
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2372,7 +1905,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C11:P11,"") - COUNTIF(D11:P11,"F") - COUNTIF(D11:P11,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2381,12 +1914,14 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -2400,21 +1935,23 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C12:P12,"") - COUNTIF(D12:P12,"F") - COUNTIF(D12:P12,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2428,7 +1965,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C13:P13,"") - COUNTIF(D13:P13,"F") - COUNTIF(D13:P13,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2437,12 +1974,14 @@
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2456,8 +1995,8 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C14:P14,"") - COUNTIF(D14:P14,"F") - COUNTIF(D14:P14,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2465,12 +2004,14 @@
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2484,8 +2025,8 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C15:P15,"") - COUNTIF(D15:P15,"F") - COUNTIF(D15:P15,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2493,12 +2034,14 @@
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -2512,8 +2055,8 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C16:P16,"") - COUNTIF(D16:P16,"F") - COUNTIF(D16:P16,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2521,12 +2064,14 @@
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -2540,7 +2085,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C17:P17,"") - COUNTIF(D17:P17,"F") - COUNTIF(D17:P17,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2549,12 +2094,14 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -2568,21 +2115,23 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C18:P18,"") - COUNTIF(D18:P18,"F") - COUNTIF(D18:P18,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2596,7 +2145,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C19:P19,"") - COUNTIF(D19:P19,"F") - COUNTIF(D19:P19,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2604,13 +2153,15 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -2624,21 +2175,23 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C20:P20,"") - COUNTIF(D20:P20,"F") - COUNTIF(D20:P20,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2652,7 +2205,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C21:P21,"") - COUNTIF(D21:P21,"F") - COUNTIF(D21:P21,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2661,12 +2214,14 @@
         <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2680,8 +2235,8 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C22:P22,"") - COUNTIF(D22:P22,"F") - COUNTIF(D22:P22,"T")/2,0)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -2689,12 +2244,14 @@
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2708,190 +2265,280 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C23:P23,"") - COUNTIF(D23:P23,"F") - COUNTIF(D23:P23,"T")/2,0)</f>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="37" t="s">
+    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B27" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="38">
-        <f t="shared" ref="C24:P24" si="0">COUNTIF(C6:C23,"=P")</f>
+      <c r="C27" s="38">
+        <f t="shared" ref="C27:P27" si="1">COUNTIF(C6:C26,"=P")</f>
+        <v>21</v>
+      </c>
+      <c r="D27" s="39">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B28" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="38">
+        <f t="shared" ref="C28:P28" si="2">COUNTIF(C6:C26,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="39">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B29" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="38">
+        <f t="shared" ref="C29:P29" si="3">COUNTIF(C6:C26,"=F") + COUNTIF(C6:C26,"=")</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="39">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="D24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="38">
-        <f t="shared" ref="C25:P25" si="1">COUNTIF(C6:C23,"=T")</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B26" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="38">
-        <f t="shared" ref="C26:P26" si="2">COUNTIF(C6:C23,"=F") + COUNTIF(C6:C23,"=")</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="39">
-        <f t="shared" si="2"/>
+      <c r="F29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="E26" s="39">
-        <f t="shared" si="2"/>
+      <c r="G29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="F26" s="39">
-        <f t="shared" si="2"/>
+      <c r="H29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G26" s="39">
-        <f t="shared" si="2"/>
+      <c r="I29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="H26" s="39">
-        <f t="shared" si="2"/>
+      <c r="J29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I26" s="39">
-        <f t="shared" si="2"/>
+      <c r="K29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="J26" s="39">
-        <f t="shared" si="2"/>
+      <c r="L29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="K26" s="39">
-        <f t="shared" si="2"/>
+      <c r="M29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="L26" s="39">
-        <f t="shared" si="2"/>
+      <c r="N29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="M26" s="39">
-        <f t="shared" si="2"/>
+      <c r="O29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="N26" s="39">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="O26" s="39">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="P26" s="39">
-        <f t="shared" si="2"/>
+      <c r="P29" s="39">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4117,31 +3764,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <sortState ref="A1:A19">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -4225,4 +3850,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -1576,7 +1576,7 @@
   </sheetPr>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3856,8 +3856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -901,20 +904,20 @@
       <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -946,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -971,7 +974,7 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -981,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1041,7 +1044,7 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1051,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1111,7 +1114,7 @@
       </c>
       <c r="H6" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -1121,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1154,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -1176,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -1198,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -1212,7 +1215,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <f>ASISTENCIA!Q17</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="11">
@@ -1220,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>10</v>
@@ -1234,7 +1237,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f>ASISTENCIA!Q18</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="11">
@@ -1242,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>11</v>
@@ -1256,7 +1259,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f>ASISTENCIA!Q19</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
@@ -1264,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1286,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -1300,7 +1303,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
@@ -1308,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -1322,7 +1325,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
@@ -1330,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -1390,7 +1393,7 @@
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q24</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1400,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>9</v>
       </c>
@@ -1460,7 +1463,7 @@
       </c>
       <c r="H19" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -1470,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>10</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6">
         <v>20</v>
@@ -1534,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22" s="15">
         <f t="shared" ref="D22:J22" si="1">AVERAGE(D2:D21)</f>
         <v>0</v>
@@ -1553,7 +1556,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>6.85</v>
+        <v>7.35</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1576,23 +1579,23 @@
   </sheetPr>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="16" width="9.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>18</v>
       </c>
@@ -1601,12 +1604,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>63</v>
@@ -1632,7 +1635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1742,7 +1745,9 @@
       <c r="D6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1756,10 +1761,10 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q26" si="0">ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1802,7 +1807,9 @@
       <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1816,10 +1823,10 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1832,7 +1839,9 @@
       <c r="D9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1846,10 +1855,10 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1862,7 +1871,9 @@
       <c r="D10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1879,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1892,7 +1903,9 @@
       <c r="D11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1906,10 +1919,10 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -1939,7 +1952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -1952,7 +1965,9 @@
       <c r="D13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1966,10 +1981,10 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -1999,7 +2014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -2012,7 +2027,9 @@
       <c r="D15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -2029,7 +2046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2059,7 +2076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2072,7 +2089,9 @@
       <c r="D17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -2086,10 +2105,10 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -2102,7 +2121,9 @@
       <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -2116,10 +2137,10 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2132,7 +2153,9 @@
       <c r="D19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -2146,10 +2169,10 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2179,7 +2202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2192,7 +2215,9 @@
       <c r="D21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -2206,10 +2231,10 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2222,7 +2247,9 @@
       <c r="D22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -2236,10 +2263,10 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>18</v>
       </c>
@@ -2269,7 +2296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -2282,7 +2309,9 @@
       <c r="D24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -2296,10 +2325,10 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>20</v>
       </c>
@@ -2329,7 +2358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>21</v>
       </c>
@@ -2342,7 +2371,9 @@
       <c r="D26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -2356,10 +2387,10 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="37" t="s">
         <v>15</v>
       </c>
@@ -2373,7 +2404,7 @@
       </c>
       <c r="E27" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F27" s="39">
         <f t="shared" si="1"/>
@@ -2420,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="37" t="s">
         <v>14</v>
       </c>
@@ -2434,7 +2465,7 @@
       </c>
       <c r="E28" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28" s="39">
         <f t="shared" si="2"/>
@@ -2481,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="37" t="s">
         <v>16</v>
       </c>
@@ -2495,7 +2526,7 @@
       </c>
       <c r="E29" s="39">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F29" s="39">
         <f t="shared" si="3"/>
@@ -2560,13 +2591,13 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
@@ -2580,7 +2611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2588,7 +2619,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2596,7 +2627,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2604,7 +2635,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2612,7 +2643,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2620,7 +2651,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2628,7 +2659,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2636,7 +2667,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2644,7 +2675,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2652,7 +2683,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2660,7 +2691,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2682,17 +2713,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3"/>
-    <col min="5" max="6" width="11.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="6" width="11.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
@@ -2715,7 +2746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2737,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2759,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2781,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2803,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2825,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2845,7 +2876,7 @@
       </c>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -2865,7 +2896,7 @@
       </c>
       <c r="G8" s="30"/>
     </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2885,7 +2916,7 @@
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2905,7 +2936,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2925,7 +2956,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -2947,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2983,17 +3014,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
@@ -3019,7 +3050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3042,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3065,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3088,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3111,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3134,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3157,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3180,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3203,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3226,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3249,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3272,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3284,7 +3315,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3296,7 +3327,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3308,7 +3339,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3320,7 +3351,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3332,7 +3363,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3358,14 +3389,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -3391,7 +3422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3420,7 +3451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3448,7 +3479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3476,7 +3507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3504,7 +3535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -3532,7 +3563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3560,7 +3591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3588,7 +3619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3616,7 +3647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -3644,7 +3675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -3672,7 +3703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -3700,7 +3731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -3728,7 +3759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -3770,15 +3801,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>17</v>
       </c>
@@ -3792,7 +3823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3801,7 +3832,7 @@
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3810,7 +3841,7 @@
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3819,7 +3850,7 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3828,7 +3859,7 @@
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3837,7 +3868,7 @@
       </c>
       <c r="C6" s="19"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3856,117 +3887,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="47.21875" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>85</v>
       </c>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>C2</t>
+  </si>
+  <si>
+    <t>Avance</t>
   </si>
 </sst>
 </file>
@@ -1580,10 +1583,10 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,6 +1621,9 @@
       </c>
       <c r="H3" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>88</v>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -977,14 +977,14 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="11">
         <f>ROUNDDOWN( D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H6" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -1174,7 +1174,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <f>ASISTENCIA!Q15</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="11">
@@ -1262,7 +1262,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f>ASISTENCIA!Q19</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
@@ -1284,7 +1284,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2">
         <f>ASISTENCIA!Q20</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="11">
@@ -1306,7 +1306,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
@@ -1328,12 +1328,12 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1396,14 +1396,14 @@
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q24</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="H19" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>7.35</v>
+        <v>7.85</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1583,18 +1583,18 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="16" width="9.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1754,7 +1754,9 @@
       <c r="E6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1767,7 +1769,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q26" si="0">ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1783,7 +1785,9 @@
       <c r="D7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1816,7 +1820,9 @@
       <c r="E8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1829,7 +1835,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1848,7 +1854,9 @@
       <c r="E9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1861,7 +1869,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1880,7 +1888,9 @@
       <c r="E10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1893,7 +1903,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1912,7 +1922,9 @@
       <c r="E11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1925,7 +1937,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1941,8 +1953,12 @@
       <c r="D12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1974,7 +1990,9 @@
       <c r="E13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1987,7 +2005,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2003,7 +2021,9 @@
       <c r="D14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2036,7 +2056,9 @@
       <c r="E15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2049,7 +2071,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2065,7 +2087,9 @@
       <c r="D16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -2162,7 +2186,9 @@
       <c r="E19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2175,7 +2201,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2191,8 +2217,12 @@
       <c r="D20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -2205,7 +2235,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2224,7 +2254,9 @@
       <c r="E21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -2237,7 +2269,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2256,7 +2288,9 @@
       <c r="E22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2269,7 +2303,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,7 +2319,9 @@
       <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -2318,7 +2354,9 @@
       <c r="E24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -2331,7 +2369,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2347,7 +2385,9 @@
       <c r="D25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -2380,7 +2420,9 @@
       <c r="E26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -2393,7 +2435,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2414,7 +2456,7 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G27" s="39">
         <f t="shared" si="1"/>
@@ -2475,7 +2517,7 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="39">
         <f t="shared" si="2"/>
@@ -2536,7 +2578,7 @@
       </c>
       <c r="F29" s="39">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G29" s="39">
         <f t="shared" si="3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="90">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1047,14 +1047,14 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="H5" s="2">
         <f>ASISTENCIA!Q12</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1174,12 +1174,12 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <f>ASISTENCIA!Q15</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <f>ASISTENCIA!Q17</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="11">
@@ -1240,12 +1240,12 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f>ASISTENCIA!Q18</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1306,12 +1306,12 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q24</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="H19" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>7.85</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -1583,18 +1583,18 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="5" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="6" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="16" width="9.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1823,7 +1823,9 @@
       <c r="F8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1835,7 +1837,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1857,7 +1859,9 @@
       <c r="F9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1869,7 +1873,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1925,7 +1929,9 @@
       <c r="F11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1937,7 +1943,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1959,7 +1965,9 @@
       <c r="F12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1971,7 +1979,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2025,7 +2033,9 @@
         <v>87</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2059,7 +2069,9 @@
       <c r="F15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -2071,7 +2083,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2123,7 +2135,9 @@
         <v>65</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -2135,7 +2149,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2155,7 +2169,9 @@
         <v>42</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -2167,7 +2183,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2189,7 +2205,9 @@
       <c r="F19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -2257,7 +2275,9 @@
       <c r="F21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -2269,7 +2289,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2291,7 +2311,9 @@
       <c r="F22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -2303,7 +2325,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2357,7 +2379,9 @@
       <c r="F24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -2369,7 +2393,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2423,7 +2447,9 @@
       <c r="F26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -2435,7 +2461,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2460,7 +2486,7 @@
       </c>
       <c r="G27" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H27" s="39">
         <f t="shared" si="1"/>
@@ -2521,7 +2547,7 @@
       </c>
       <c r="G28" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="39">
         <f t="shared" si="2"/>
@@ -2582,7 +2608,7 @@
       </c>
       <c r="G29" s="39">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H29" s="39">
         <f t="shared" si="3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="90">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -977,7 +977,7 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1196,7 +1196,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2">
         <f>ASISTENCIA!Q16</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="11">
@@ -1218,12 +1218,12 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <f>ASISTENCIA!Q17</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1240,7 +1240,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f>ASISTENCIA!Q18</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="11">
@@ -1262,12 +1262,12 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f>ASISTENCIA!Q19</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1284,12 +1284,12 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2">
         <f>ASISTENCIA!Q20</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
@@ -1328,7 +1328,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q24</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H18" s="2">
         <f>ASISTENCIA!Q25</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="H19" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>8.3000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>
@@ -1583,18 +1583,18 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="6" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="7" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="16" width="9.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1757,8 +1757,12 @@
       <c r="F6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1769,7 +1773,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q26" si="0">ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1789,7 +1793,9 @@
         <v>87</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1826,7 +1832,9 @@
       <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1837,7 +1845,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1862,7 +1870,9 @@
       <c r="G9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -1873,7 +1883,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1895,7 +1905,9 @@
       <c r="F10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1932,7 +1944,9 @@
       <c r="G11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1943,7 +1957,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2001,7 +2015,9 @@
       <c r="F13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -2103,8 +2119,12 @@
         <v>87</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2115,7 +2135,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2138,7 +2158,9 @@
       <c r="G17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2149,7 +2171,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2172,7 +2194,9 @@
       <c r="G18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2183,7 +2207,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,7 +2232,9 @@
       <c r="G19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2219,7 +2245,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2241,8 +2267,12 @@
       <c r="F20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -2253,7 +2283,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2278,7 +2308,9 @@
       <c r="G21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2289,7 +2321,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2314,7 +2346,9 @@
       <c r="G22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2325,7 +2359,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2345,7 +2379,9 @@
         <v>87</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -2382,7 +2418,9 @@
       <c r="G24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -2393,7 +2431,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2413,8 +2451,12 @@
         <v>87</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -2425,7 +2467,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2450,7 +2492,9 @@
       <c r="G26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -2461,7 +2505,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2490,7 +2534,7 @@
       </c>
       <c r="H27" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I27" s="39">
         <f t="shared" si="1"/>
@@ -2612,7 +2656,7 @@
       </c>
       <c r="H29" s="39">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I29" s="39">
         <f t="shared" si="3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H7" s="2">
         <f>ASISTENCIA!Q14</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>8.9</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1586,7 +1586,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2052,9 @@
       <c r="G14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -2063,7 +2065,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2382,7 +2384,9 @@
       <c r="G23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -2595,7 +2599,7 @@
       </c>
       <c r="H28" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="39">
         <f t="shared" si="2"/>
@@ -2656,7 +2660,7 @@
       </c>
       <c r="H29" s="39">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I29" s="39">
         <f t="shared" si="3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="90">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1196,12 +1196,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2">
         <f>ASISTENCIA!Q16</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
@@ -1328,7 +1328,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="H19" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>8.9499999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -1583,18 +1583,18 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="7" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="8" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="16" width="9.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1796,7 +1796,9 @@
       <c r="G7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1835,7 +1837,9 @@
       <c r="H8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1845,7 +1849,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1873,7 +1877,9 @@
       <c r="H9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -1883,7 +1889,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1908,7 +1914,9 @@
       <c r="G10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1947,7 +1955,9 @@
       <c r="H11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1957,7 +1967,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1982,7 +1992,9 @@
       <c r="G12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -2018,7 +2030,9 @@
       <c r="G13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2090,7 +2104,9 @@
       <c r="G15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2127,7 +2143,9 @@
       <c r="H16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -2137,7 +2155,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2313,7 +2331,9 @@
       <c r="H21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -2323,7 +2343,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2351,7 +2371,9 @@
       <c r="H22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -2361,7 +2383,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2499,7 +2521,9 @@
       <c r="H26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -2509,7 +2533,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2542,7 +2566,7 @@
       </c>
       <c r="I27" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J27" s="39">
         <f t="shared" si="1"/>
@@ -2664,7 +2688,7 @@
       </c>
       <c r="I29" s="39">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J29" s="39">
         <f t="shared" si="3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Avance</t>
+  </si>
+  <si>
+    <t>Santos Ccerhuayo, Walter</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1265,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f>ASISTENCIA!Q19</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
@@ -1284,7 +1287,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2">
         <f>ASISTENCIA!Q20</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="11">
@@ -1306,7 +1309,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
@@ -1361,7 +1364,7 @@
       </c>
       <c r="H16" s="2">
         <f>ASISTENCIA!Q23</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -1396,7 +1399,7 @@
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q24</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1559,7 +1562,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>9.1999999999999993</v>
+        <v>9.35</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1580,13 +1583,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,7 +2184,9 @@
       <c r="H17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -2255,7 +2260,9 @@
       <c r="H19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -2265,7 +2272,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2293,7 +2300,9 @@
       <c r="H20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -2303,7 +2312,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2331,9 +2340,7 @@
       <c r="H21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -2343,7 +2350,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2409,7 +2416,9 @@
       <c r="H23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2419,7 +2428,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2447,7 +2456,9 @@
       <c r="H24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -2457,7 +2468,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2566,7 +2577,7 @@
       </c>
       <c r="I27" s="39">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J27" s="39">
         <f t="shared" si="1"/>
@@ -2627,7 +2638,7 @@
       </c>
       <c r="I28" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J28" s="39">
         <f t="shared" si="2"/>
@@ -2688,7 +2699,7 @@
       </c>
       <c r="I29" s="39">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J29" s="39">
         <f t="shared" si="3"/>
@@ -2717,6 +2728,14 @@
       <c r="P29" s="39">
         <f t="shared" si="3"/>
         <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -980,7 +980,7 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -1085,14 +1085,14 @@
       </c>
       <c r="H5" s="2">
         <f>ASISTENCIA!Q12</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>9.35</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>
@@ -1586,10 +1586,10 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,7 +1766,9 @@
       <c r="H6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1776,7 +1778,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q26" si="0">ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1920,7 +1922,9 @@
       <c r="H10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1998,7 +2002,9 @@
       <c r="H12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -2008,7 +2014,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2036,7 +2042,9 @@
       <c r="H13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -2638,7 +2646,7 @@
       </c>
       <c r="I28" s="39">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J28" s="39">
         <f t="shared" si="2"/>
@@ -2699,7 +2707,7 @@
       </c>
       <c r="I29" s="39">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J29" s="39">
         <f t="shared" si="3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="91">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1120,14 +1120,14 @@
       </c>
       <c r="H6" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1177,7 +1177,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <f>ASISTENCIA!Q15</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="11">
@@ -1199,7 +1199,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2">
         <f>ASISTENCIA!Q16</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="11">
@@ -1221,7 +1221,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <f>ASISTENCIA!Q17</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="11">
@@ -1243,7 +1243,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f>ASISTENCIA!Q18</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="11">
@@ -1309,7 +1309,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
@@ -1331,7 +1331,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="H16" s="2">
         <f>ASISTENCIA!Q23</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q24</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="H18" s="2">
         <f>ASISTENCIA!Q25</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="H19" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>9.4499999999999993</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>
@@ -1586,18 +1586,18 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="8" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="16" width="9.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1769,7 +1769,9 @@
       <c r="I6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -1797,14 +1799,18 @@
       <c r="E7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>87</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1845,7 +1851,9 @@
       <c r="I8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -1854,7 +1862,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1885,7 +1893,9 @@
       <c r="I9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -1894,7 +1904,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1965,7 +1975,9 @@
       <c r="I11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1974,7 +1986,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2045,7 +2057,9 @@
       <c r="I13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -2054,7 +2068,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2073,15 +2087,21 @@
       <c r="E14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G14" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2118,8 +2138,12 @@
       <c r="H15" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -2128,7 +2152,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2147,7 +2171,9 @@
       <c r="E16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G16" s="6" t="s">
         <v>87</v>
       </c>
@@ -2157,7 +2183,9 @@
       <c r="I16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -2166,7 +2194,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2185,7 +2213,9 @@
       <c r="E17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G17" s="6" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2225,9 @@
       <c r="I17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -2204,7 +2236,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2223,15 +2255,21 @@
       <c r="E18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G18" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -2240,7 +2278,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2271,7 +2309,9 @@
       <c r="I19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -2311,7 +2351,9 @@
       <c r="I20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -2348,8 +2390,12 @@
       <c r="H21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -2358,7 +2404,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2389,7 +2435,9 @@
       <c r="I22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -2398,7 +2446,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2417,7 +2465,9 @@
       <c r="E23" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>87</v>
       </c>
@@ -2427,7 +2477,9 @@
       <c r="I23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -2436,7 +2488,7 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2467,7 +2519,9 @@
       <c r="I24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -2476,7 +2530,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2495,15 +2549,21 @@
       <c r="E25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G25" s="6" t="s">
         <v>87</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -2512,7 +2572,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2543,7 +2603,9 @@
       <c r="I26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -2552,7 +2614,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2589,7 +2651,7 @@
       </c>
       <c r="J27" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K27" s="39">
         <f t="shared" si="1"/>
@@ -2650,7 +2712,7 @@
       </c>
       <c r="J28" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K28" s="39">
         <f t="shared" si="2"/>
@@ -2711,7 +2773,7 @@
       </c>
       <c r="J29" s="39">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K29" s="39">
         <f t="shared" si="3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H3" s="2">
         <f>ASISTENCIA!Q7</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1177,7 +1177,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <f>ASISTENCIA!Q15</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="11">
@@ -1199,7 +1199,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2">
         <f>ASISTENCIA!Q16</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="11">
@@ -1221,7 +1221,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <f>ASISTENCIA!Q17</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="11">
@@ -1243,7 +1243,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f>ASISTENCIA!Q18</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="11">
@@ -1265,7 +1265,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f>ASISTENCIA!Q19</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
@@ -1309,7 +1309,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
@@ -1331,12 +1331,12 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1399,14 +1399,14 @@
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q24</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1434,14 +1434,14 @@
       </c>
       <c r="H18" s="2">
         <f>ASISTENCIA!Q25</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="H19" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>10.050000000000001</v>
+        <v>10.65</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>
@@ -1586,18 +1586,18 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="9" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="10" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="16" width="9.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1811,8 +1811,12 @@
       <c r="I7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -1820,7 +1824,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1854,7 +1858,9 @@
       <c r="J8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -1862,7 +1868,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1896,7 +1902,9 @@
       <c r="J9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1904,7 +1912,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1935,7 +1943,9 @@
       <c r="I10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -1978,7 +1988,9 @@
       <c r="J11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1986,7 +1998,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2017,7 +2029,9 @@
       <c r="I12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -2144,7 +2158,9 @@
       <c r="J15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -2152,7 +2168,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2186,7 +2202,9 @@
       <c r="J16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -2194,7 +2212,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2228,7 +2246,9 @@
       <c r="J17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2236,7 +2256,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2270,7 +2290,9 @@
       <c r="J18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -2278,7 +2300,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2312,7 +2334,9 @@
       <c r="J19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -2320,7 +2344,7 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2396,7 +2420,9 @@
       <c r="J21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2404,7 +2430,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2438,7 +2464,9 @@
       <c r="J22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -2446,7 +2474,7 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2522,7 +2550,9 @@
       <c r="J24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -2530,7 +2560,7 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2564,7 +2594,9 @@
       <c r="J25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -2572,7 +2604,7 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2606,7 +2638,9 @@
       <c r="J26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="6"/>
+      <c r="K26" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -2614,7 +2648,7 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2655,7 +2689,7 @@
       </c>
       <c r="K27" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L27" s="39">
         <f t="shared" si="1"/>
@@ -2777,7 +2811,7 @@
       </c>
       <c r="K29" s="39">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L29" s="39">
         <f t="shared" si="3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="91">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1153,14 +1153,14 @@
       </c>
       <c r="H7" s="2">
         <f>ASISTENCIA!Q14</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1287,7 +1287,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2">
         <f>ASISTENCIA!Q20</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="11">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H22" s="15">
         <f t="shared" si="1"/>
-        <v>10.65</v>
+        <v>10.75</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="1"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1589,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2032,9 @@
       <c r="J12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -2074,7 +2076,9 @@
       <c r="J13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2116,7 +2120,9 @@
       <c r="J14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -2124,7 +2130,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2378,7 +2384,9 @@
       <c r="J20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -2386,7 +2394,7 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2508,7 +2516,9 @@
       <c r="J23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -2750,7 +2760,7 @@
       </c>
       <c r="K28" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L28" s="39">
         <f t="shared" si="2"/>
@@ -2811,7 +2821,7 @@
       </c>
       <c r="K29" s="39">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L29" s="39">
         <f t="shared" si="3"/>
@@ -2839,6 +2849,9 @@
         <v>90</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="91">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -452,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,8 +484,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,9 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,6 +558,9 @@
     </xf>
     <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,18 +974,18 @@
       </c>
       <c r="G2" s="2">
         <f>PARTICIPACION!F2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="11">
         <f>ROUNDDOWN( D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1011,18 +1009,18 @@
       </c>
       <c r="G3" s="2">
         <f>PARTICIPACION!F3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2">
         <f>ASISTENCIA!Q7</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J21" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1046,18 +1044,18 @@
       </c>
       <c r="G4" s="2">
         <f>PARTICIPACION!F4</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1081,11 +1079,11 @@
       </c>
       <c r="G5" s="2">
         <f>PARTICIPACION!F5</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
         <f>ASISTENCIA!Q12</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1120,7 +1118,7 @@
       </c>
       <c r="H6" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -1149,7 +1147,7 @@
       </c>
       <c r="G7" s="2">
         <f>PARTICIPACION!F7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2">
         <f>ASISTENCIA!Q14</f>
@@ -1177,7 +1175,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <f>ASISTENCIA!Q15</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="11">
@@ -1199,7 +1197,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2">
         <f>ASISTENCIA!Q16</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="11">
@@ -1221,7 +1219,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <f>ASISTENCIA!Q17</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="11">
@@ -1243,7 +1241,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f>ASISTENCIA!Q18</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="11">
@@ -1265,7 +1263,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f>ASISTENCIA!Q19</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
@@ -1287,7 +1285,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2">
         <f>ASISTENCIA!Q20</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="11">
@@ -1309,7 +1307,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
@@ -1331,7 +1329,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
@@ -1360,11 +1358,11 @@
       </c>
       <c r="G16" s="2">
         <f>PARTICIPACION!F8</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2">
         <f>ASISTENCIA!Q23</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -1395,7 +1393,7 @@
       </c>
       <c r="G17" s="2">
         <f>PARTICIPACION!F9</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q24</f>
@@ -1430,11 +1428,11 @@
       </c>
       <c r="G18" s="2">
         <f>PARTICIPACION!F10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2">
         <f>ASISTENCIA!Q25</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1465,11 +1463,11 @@
       </c>
       <c r="G19" s="2">
         <f>PARTICIPACION!F11</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -1498,7 +1496,7 @@
       </c>
       <c r="G20" s="2">
         <f>PARTICIPACION!F12</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2">
         <f>ASISTENCIA!Q27</f>
@@ -1529,7 +1527,7 @@
       </c>
       <c r="G21" s="2">
         <f>PARTICIPACION!F13</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2">
         <f>ASISTENCIA!Q28</f>
@@ -1544,33 +1542,33 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <f t="shared" ref="D22:J22" si="1">AVERAGE(D2:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="H22" s="13">
         <f t="shared" si="1"/>
-        <v>10.75</v>
-      </c>
-      <c r="I22" s="15">
+        <v>11.55</v>
+      </c>
+      <c r="I22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="13">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1585,38 +1583,38 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="10" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="11" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="16" width="9.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1689,55 +1687,55 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="40">
         <v>42934</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="40">
         <v>42936</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="40">
         <v>42941</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="40">
         <v>42943</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="40">
         <v>42948</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="40">
         <v>42950</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="40">
         <v>42955</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="40">
         <v>42957</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="40">
         <v>42962</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="40">
         <v>42964</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="40">
         <v>42969</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="40">
         <v>42971</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="40">
         <v>42976</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="40">
         <v>42978</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="Q5" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1772,15 +1770,19 @@
       <c r="J6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q26" si="0">ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1817,14 +1819,16 @@
       <c r="K7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1861,14 +1865,16 @@
       <c r="K8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1905,14 +1911,16 @@
       <c r="K9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1946,7 +1954,9 @@
       <c r="J10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1991,14 +2001,16 @@
       <c r="K11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2035,14 +2047,16 @@
       <c r="K12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2052,7 +2066,7 @@
       <c r="B13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2079,14 +2093,16 @@
       <c r="K13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2167,14 +2183,16 @@
       <c r="K15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2211,14 +2229,16 @@
       <c r="K16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2255,14 +2275,16 @@
       <c r="K17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2299,14 +2321,16 @@
       <c r="K18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2343,14 +2367,16 @@
       <c r="K19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2387,14 +2413,16 @@
       <c r="K20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2431,14 +2459,16 @@
       <c r="K21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2448,7 +2478,7 @@
       <c r="B22" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2475,14 +2505,16 @@
       <c r="K22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2492,7 +2524,7 @@
       <c r="B23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2519,14 +2551,16 @@
       <c r="K23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2536,7 +2570,7 @@
       <c r="B24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2563,7 +2597,9 @@
       <c r="K24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -2580,7 +2616,7 @@
       <c r="B25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -2607,14 +2643,16 @@
       <c r="K25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2624,7 +2662,7 @@
       <c r="B26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -2651,201 +2689,203 @@
       <c r="K26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="38">
+      <c r="C27" s="35">
         <f t="shared" ref="C27:P27" si="1">COUNTIF(C6:C26,"=P")</f>
         <v>21</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="36">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="36">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="36">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="36">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="36">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="36">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="36">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="36">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="39">
+        <v>18</v>
+      </c>
+      <c r="M27" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N27" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O27" s="39">
+      <c r="O27" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P27" s="40">
+      <c r="P27" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="35">
         <f t="shared" ref="C28:P28" si="2">COUNTIF(C6:C26,"=T")</f>
         <v>0</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="36">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="36">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="36">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="36">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I28" s="39">
+      <c r="I28" s="36">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="36">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="39">
+        <v>1</v>
+      </c>
+      <c r="M28" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="39">
+      <c r="N28" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="39">
+      <c r="O28" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="39">
+      <c r="P28" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="35">
         <f t="shared" ref="C29:P29" si="3">COUNTIF(C6:C26,"=F") + COUNTIF(C6:C26,"=")</f>
         <v>0</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="36">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="36">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="36">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="36">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="36">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="36">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="36">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="36">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M29" s="36">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="M29" s="39">
+      <c r="N29" s="36">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="N29" s="39">
+      <c r="O29" s="36">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="O29" s="39">
+      <c r="P29" s="36">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="P29" s="39">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
     </row>
     <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="34" t="s">
         <v>90</v>
       </c>
       <c r="I30" s="3" t="s">
@@ -2880,16 +2920,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2897,7 +2937,7 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
@@ -2905,7 +2945,7 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
@@ -2913,7 +2953,7 @@
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
@@ -2921,7 +2961,7 @@
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
@@ -2929,7 +2969,7 @@
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
@@ -2937,7 +2977,7 @@
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
@@ -2945,7 +2985,7 @@
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
@@ -2953,7 +2993,7 @@
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
@@ -2961,7 +3001,7 @@
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
@@ -2969,7 +3009,7 @@
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
@@ -2977,7 +3017,7 @@
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
@@ -2989,138 +3029,151 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="6" width="11.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="C2" s="12">
         <v>0</v>
       </c>
       <c r="D2" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="12">
         <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0) + G2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="C3" s="12">
         <v>0</v>
       </c>
       <c r="D3" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F13" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="12">
         <v>0</v>
       </c>
       <c r="D4" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="12">
         <v>0</v>
       </c>
       <c r="D5" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="12">
         <v>0</v>
       </c>
@@ -3134,153 +3187,324 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="C7" s="12">
         <v>0</v>
       </c>
       <c r="D7" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="C8" s="12">
         <v>0</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="C9" s="12">
         <v>0</v>
       </c>
       <c r="D9" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="C10" s="12">
         <v>0</v>
       </c>
       <c r="D10" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10" s="12">
         <v>0</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="25" t="s">
+        <v>75</v>
+      </c>
       <c r="C11" s="12">
         <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="C12" s="12">
         <v>0</v>
       </c>
       <c r="D12" s="12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="26" t="s">
+        <v>77</v>
+      </c>
       <c r="C13" s="10">
         <v>0</v>
       </c>
       <c r="D13" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E13" s="10">
         <v>0</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
+        <v>14</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
+        <v>18</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>18</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <v>16</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <v>14</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <v>14</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3307,28 +3531,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3336,7 +3560,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12">
         <v>0</v>
@@ -3359,8 +3583,8 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="12">
         <v>0</v>
       </c>
@@ -3382,7 +3606,7 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12">
         <v>0</v>
@@ -3405,7 +3629,7 @@
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12">
         <v>0</v>
@@ -3428,9 +3652,9 @@
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18">
+      <c r="B6" s="25"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16">
         <v>0</v>
       </c>
       <c r="E6" s="12">
@@ -3451,7 +3675,7 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12">
         <v>0</v>
@@ -3474,7 +3698,7 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12">
         <v>0</v>
@@ -3497,7 +3721,7 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12">
         <v>0</v>
@@ -3520,9 +3744,9 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18">
+      <c r="B10" s="25"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16">
         <v>0</v>
       </c>
       <c r="E10" s="12">
@@ -3543,9 +3767,9 @@
       <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18">
+      <c r="B11" s="25"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
         <v>0</v>
       </c>
       <c r="E11" s="12">
@@ -3566,9 +3790,9 @@
       <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18">
+      <c r="B12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16">
         <v>0</v>
       </c>
       <c r="E12" s="12">
@@ -3589,72 +3813,72 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="10"/>
     </row>
   </sheetData>
@@ -3737,7 +3961,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="10">
         <v>2</v>
       </c>
@@ -3765,7 +3989,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="10">
         <v>2</v>
       </c>
@@ -3793,7 +4017,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="10">
         <v>2</v>
       </c>
@@ -3821,7 +4045,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="10">
         <v>2</v>
       </c>
@@ -3849,7 +4073,7 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="10">
         <v>2</v>
       </c>
@@ -3877,7 +4101,7 @@
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="10">
         <v>2</v>
       </c>
@@ -3905,7 +4129,7 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="10">
         <v>2</v>
       </c>
@@ -3933,7 +4157,7 @@
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="10">
         <v>2</v>
       </c>
@@ -3961,7 +4185,7 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="10">
         <v>2</v>
       </c>
@@ -3989,7 +4213,7 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="10">
         <v>2</v>
       </c>
@@ -4017,7 +4241,7 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="10">
         <v>2</v>
       </c>
@@ -4045,7 +4269,7 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="10">
         <v>2</v>
       </c>
@@ -4092,16 +4316,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4109,55 +4333,55 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="32">
         <v>0.2986111111111111</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="32">
         <v>0.31944444444444448</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="32">
         <v>0.34027777777777801</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="32">
         <v>0.36111111111111099</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="32">
         <v>0.38194444444444497</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="32">
         <v>0.40277777777777801</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="73">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -154,60 +154,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>ALDAVE ROMO, ANGEL</t>
-  </si>
-  <si>
-    <t>ALVARADO AGUADO, LUCAS</t>
-  </si>
-  <si>
-    <t>CAMUS RUEDA, JULISSA</t>
-  </si>
-  <si>
-    <t>CHIPANA AVENDAÑO, RICHARD</t>
-  </si>
-  <si>
-    <t>GONZALES SULCA, CARMEN</t>
-  </si>
-  <si>
-    <t>MAMANI POCCO, FRANK</t>
-  </si>
-  <si>
-    <t>MELGAR PRADA, JOSE</t>
-  </si>
-  <si>
-    <t>MONZON VILLA, CARLOS</t>
-  </si>
-  <si>
-    <t>MORENO NOLAZCO, ROBERTO</t>
-  </si>
-  <si>
-    <t>PARODI GUERRERO, VICTOR</t>
-  </si>
-  <si>
-    <t>PORTOCARRERO MIRANDA, PERCY</t>
-  </si>
-  <si>
-    <t>RAMOS PIO, JUNIOR</t>
-  </si>
-  <si>
-    <t>SAAVEDRA VELIZ, LUIS</t>
-  </si>
-  <si>
-    <t>SANCHEZ BEJAR, JORGE</t>
-  </si>
-  <si>
-    <t>SARMIENTO TRAVI, CHRISTIAN</t>
-  </si>
-  <si>
-    <t>VARGAS SOTO, JUAN</t>
-  </si>
-  <si>
-    <t>VILCHEZ MELENDEZ, ZANY</t>
-  </si>
-  <si>
-    <t>ZAMBRANO BURGOS, MIGUEL</t>
   </si>
   <si>
     <t>EF</t>
@@ -900,28 +846,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -953,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -961,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
@@ -985,10 +931,10 @@
       </c>
       <c r="J2" s="11">
         <f>ROUNDDOWN( D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -996,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1019,11 +965,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="11">
-        <f t="shared" ref="J3:J21" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J3:J22" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1031,13 +977,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -1055,10 +1001,10 @@
       </c>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1066,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1093,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1101,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1128,19 +1074,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="11">
         <v>0</v>
@@ -1158,16 +1104,16 @@
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1183,13 +1129,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1205,13 +1151,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1227,13 +1173,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1249,13 +1195,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1271,13 +1217,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1293,13 +1239,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1315,13 +1261,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1337,7 +1283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -1345,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1372,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -1380,7 +1326,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -1407,7 +1353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -1415,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -1442,133 +1388,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>9</v>
-      </c>
+    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="C19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
         <f>PARTICIPACION!F11</f>
         <v>6</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H21" s="2">
         <f>ASISTENCIA!Q26</f>
         <v>16</v>
       </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>10</v>
       </c>
-      <c r="B20" s="6">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
         <f>PARTICIPACION!F12</f>
         <v>7</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="2">
         <f>ASISTENCIA!Q27</f>
         <v>0</v>
       </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <f>PARTICIPACION!F13</f>
-        <v>6</v>
-      </c>
-      <c r="H21" s="2">
-        <f>ASISTENCIA!Q28</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="13">
-        <f t="shared" ref="D22:J22" si="1">AVERAGE(D2:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="13">
-        <f t="shared" si="1"/>
-        <v>5.416666666666667</v>
-      </c>
-      <c r="H22" s="13">
-        <f t="shared" si="1"/>
-        <v>11.55</v>
-      </c>
-      <c r="I22" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="13">
-        <f t="shared" si="1"/>
-        <v>2.0499999999999998</v>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D23" s="13">
+        <f>AVERAGE(D2:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <f>AVERAGE(E2:E22)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F23" s="13">
+        <f>AVERAGE(F2:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <f>AVERAGE(G2:G22)</f>
+        <v>5.3636363636363633</v>
+      </c>
+      <c r="H23" s="13">
+        <f>AVERAGE(H2:H22)</f>
+        <v>12.157894736842104</v>
+      </c>
+      <c r="I23" s="13">
+        <f>AVERAGE(I2:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <f>AVERAGE(J2:J22)</f>
+        <v>2.3684210526315788</v>
       </c>
     </row>
   </sheetData>
@@ -1583,23 +1534,23 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6:B26"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="11" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="16" width="9.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="11" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="16" width="9.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>18</v>
       </c>
@@ -1608,12 +1559,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>41</v>
       </c>
@@ -1624,25 +1575,25 @@
         <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -1686,7 +1637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>13</v>
       </c>
@@ -1739,12 +1690,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>42</v>
@@ -1759,19 +1710,19 @@
         <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>42</v>
@@ -1785,36 +1736,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>42</v>
@@ -1831,12 +1782,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>42</v>
@@ -1845,7 +1796,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>42</v>
@@ -1877,12 +1828,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>42</v>
@@ -1923,39 +1874,39 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -1967,18 +1918,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>42</v>
@@ -2013,39 +1964,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>42</v>
@@ -2059,39 +2010,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>42</v>
@@ -2105,39 +2056,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2149,21 +2100,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>42</v>
@@ -2172,10 +2123,10 @@
         <v>42</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>42</v>
@@ -2195,12 +2146,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>42</v>
@@ -2209,13 +2160,13 @@
         <v>42</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>42</v>
@@ -2241,24 +2192,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>42</v>
@@ -2267,10 +2218,10 @@
         <v>42</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>42</v>
@@ -2287,12 +2238,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>42</v>
@@ -2304,7 +2255,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>42</v>
@@ -2313,7 +2264,7 @@
         <v>42</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>42</v>
@@ -2333,36 +2284,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>42</v>
@@ -2379,12 +2330,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>42</v>
@@ -2393,25 +2344,25 @@
         <v>42</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>42</v>
@@ -2425,18 +2376,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>42</v>
@@ -2451,7 +2402,7 @@
         <v>42</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>42</v>
@@ -2471,12 +2422,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>42</v>
@@ -2517,39 +2468,39 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>42</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>42</v>
@@ -2563,12 +2514,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>42</v>
@@ -2589,7 +2540,7 @@
         <v>42</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>42</v>
@@ -2598,7 +2549,7 @@
         <v>42</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
@@ -2609,36 +2560,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>42</v>
@@ -2655,12 +2606,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>42</v>
@@ -2701,7 +2652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="34" t="s">
         <v>15</v>
       </c>
@@ -2762,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>14</v>
       </c>
@@ -2823,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="34" t="s">
         <v>16</v>
       </c>
@@ -2884,15 +2835,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="34" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2913,13 +2864,13 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
@@ -2933,7 +2884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2941,7 +2892,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2949,7 +2900,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2957,7 +2908,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2965,7 +2916,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2973,7 +2924,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2981,7 +2932,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2989,7 +2940,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2997,7 +2948,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3005,7 +2956,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3013,7 +2964,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3031,24 +2982,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="6" width="11.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3"/>
+    <col min="5" max="6" width="11.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -3071,12 +3022,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C2" s="12">
         <v>0</v>
@@ -3095,12 +3046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
@@ -3119,12 +3070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C4" s="12">
         <v>0</v>
@@ -3143,12 +3094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
@@ -3167,12 +3118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C6" s="12">
         <v>0</v>
@@ -3191,12 +3142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C7" s="12">
         <v>0</v>
@@ -3213,12 +3164,12 @@
       </c>
       <c r="G7" s="42"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C8" s="12">
         <v>0</v>
@@ -3235,12 +3186,12 @@
       </c>
       <c r="G8" s="42"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C9" s="12">
         <v>0</v>
@@ -3257,12 +3208,12 @@
       </c>
       <c r="G9" s="42"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C10" s="12">
         <v>0</v>
@@ -3279,12 +3230,12 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C11" s="12">
         <v>0</v>
@@ -3301,12 +3252,12 @@
       </c>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C12" s="12">
         <v>0</v>
@@ -3325,12 +3276,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10">
         <v>0</v>
@@ -3349,12 +3300,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10">
@@ -3364,12 +3315,12 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10">
@@ -3379,12 +3330,12 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10">
@@ -3394,12 +3345,12 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10">
@@ -3409,12 +3360,12 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10">
@@ -3424,12 +3375,12 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10">
@@ -3439,12 +3390,12 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10">
@@ -3454,12 +3405,12 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10">
@@ -3469,12 +3420,12 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10">
@@ -3484,7 +3435,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -3495,7 +3446,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -3520,17 +3471,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
@@ -3556,7 +3507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3579,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3602,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3625,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3648,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3671,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3694,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3717,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3740,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3763,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3786,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3809,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3821,7 +3772,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3833,7 +3784,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3845,7 +3796,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3857,7 +3808,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3869,7 +3820,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3892,17 +3843,17 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" customWidth="1"/>
+    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -3928,7 +3879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3957,7 +3908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3985,7 +3936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -4013,7 +3964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -4041,7 +3992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -4069,7 +4020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -4097,7 +4048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4125,7 +4076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -4153,7 +4104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -4181,7 +4132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4209,7 +4160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -4237,7 +4188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4265,7 +4216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -4307,15 +4258,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
@@ -4329,7 +4280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4338,7 +4289,7 @@
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4347,7 +4298,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4356,7 +4307,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4365,7 +4316,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4374,7 +4325,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4397,115 +4348,115 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId2"/>
-    <sheet name="EXPERIENCIA" sheetId="3" r:id="rId3"/>
-    <sheet name="PARTICIPACION" sheetId="4" r:id="rId4"/>
-    <sheet name="INVESTIGACION" sheetId="5" r:id="rId5"/>
+    <sheet name="PARTICIPACION" sheetId="4" r:id="rId3"/>
+    <sheet name="INVESTIGACION" sheetId="5" r:id="rId4"/>
+    <sheet name="Exposición" sheetId="10" r:id="rId5"/>
     <sheet name="PRACT2" sheetId="9" r:id="rId6"/>
-    <sheet name="Exposición" sheetId="10" r:id="rId7"/>
-    <sheet name="Hoja1" sheetId="11" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$P$26</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="72">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -39,12 +38,6 @@
     <t>NOTA</t>
   </si>
   <si>
-    <t>EXP1</t>
-  </si>
-  <si>
-    <t>EXP2</t>
-  </si>
-  <si>
     <t>CTRL02</t>
   </si>
   <si>
@@ -54,12 +47,6 @@
     <t>PROM</t>
   </si>
   <si>
-    <t>TRAB</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>PROMEDIO</t>
   </si>
   <si>
@@ -244,6 +231,15 @@
   </si>
   <si>
     <t>Santos Ccerhuayo, Walter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos </t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>APP</t>
   </si>
 </sst>
 </file>
@@ -398,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,7 +443,6 @@
     <xf numFmtId="15" fontId="4" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -846,60 +841,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -907,16 +903,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2">
+        <f>INVESTIGACION!I2</f>
         <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>18</v>
       </c>
       <c r="F2" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2">
         <f>PARTICIPACION!F2</f>
@@ -934,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -942,16 +939,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
+        <f>INVESTIGACION!I3</f>
         <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
         <f>PARTICIPACION!F3</f>
@@ -959,7 +957,7 @@
       </c>
       <c r="H3" s="2">
         <f>ASISTENCIA!Q7</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -969,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -977,34 +975,35 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
+        <f>INVESTIGACION!I4</f>
         <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>18</v>
       </c>
       <c r="F4" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
         <f>PARTICIPACION!F4</f>
         <v>5</v>
       </c>
       <c r="H4" s="2">
-        <f>ASISTENCIA!Q11</f>
-        <v>15</v>
+        <f>ASISTENCIA!Q8</f>
+        <v>17</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1012,34 +1011,35 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2">
+        <f>INVESTIGACION!I5</f>
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2">
         <f>PARTICIPACION!F5</f>
         <v>6</v>
       </c>
       <c r="H5" s="2">
-        <f>ASISTENCIA!Q12</f>
-        <v>11</v>
+        <f>ASISTENCIA!Q9</f>
+        <v>17</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1047,13 +1047,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2">
+        <f>INVESTIGACION!I6</f>
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
@@ -1063,8 +1064,8 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>ASISTENCIA!Q13</f>
-        <v>11</v>
+        <f>ASISTENCIA!Q10</f>
+        <v>9</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -1074,54 +1075,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2">
+        <f>INVESTIGACION!I7</f>
         <v>0</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2">
         <f>PARTICIPACION!F7</f>
         <v>6</v>
       </c>
       <c r="H7" s="2">
-        <f>ASISTENCIA!Q14</f>
-        <v>10</v>
+        <f>ASISTENCIA!Q11</f>
+        <v>16</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <f>INVESTIGACION!I8</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="11">
+        <v>10</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
-        <f>ASISTENCIA!Q15</f>
-        <v>13</v>
+        <f>ASISTENCIA!Q12</f>
+        <v>12</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="11">
@@ -1129,21 +1136,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D9" s="2">
+        <f>INVESTIGACION!I9</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="11">
+        <v>5</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
-        <f>ASISTENCIA!Q16</f>
-        <v>13</v>
+        <f>ASISTENCIA!Q13</f>
+        <v>12</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="11">
@@ -1151,139 +1163,179 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="D10" s="2">
+        <f>INVESTIGACION!I10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14</v>
+      </c>
+      <c r="F10" s="11">
+        <v>12</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2">
-        <f>ASISTENCIA!Q17</f>
-        <v>13</v>
+        <f>ASISTENCIA!Q14</f>
+        <v>10</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="2">
+        <f>INVESTIGACION!I11</f>
+        <v>0</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>10</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
-        <f>ASISTENCIA!Q18</f>
-        <v>14</v>
+        <f>ASISTENCIA!Q15</f>
+        <v>13</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="D12" s="2">
+        <f>INVESTIGACION!I12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11">
+        <v>18</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2">
-        <f>ASISTENCIA!Q19</f>
-        <v>13</v>
+        <f>ASISTENCIA!Q16</f>
+        <v>14</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="D13" s="2">
+        <f>INVESTIGACION!I13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11">
+        <v>18</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2">
-        <f>ASISTENCIA!Q20</f>
+        <f>ASISTENCIA!Q17</f>
         <v>13</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="D14" s="2">
+        <f>INVESTIGACION!I14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11">
+        <v>18</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
-        <f>ASISTENCIA!Q21</f>
-        <v>14</v>
+        <f>ASISTENCIA!Q18</f>
+        <v>15</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="D15" s="2">
+        <f>INVESTIGACION!I15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>14</v>
+      </c>
+      <c r="F15" s="11">
+        <v>12</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2">
-        <f>ASISTENCIA!Q22</f>
-        <v>16</v>
+        <f>ASISTENCIA!Q19</f>
+        <v>14</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -1291,34 +1343,35 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2">
+        <f>INVESTIGACION!I16</f>
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F16" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2">
         <f>PARTICIPACION!F8</f>
         <v>6</v>
       </c>
       <c r="H16" s="2">
-        <f>ASISTENCIA!Q23</f>
-        <v>11</v>
+        <f>ASISTENCIA!Q20</f>
+        <v>14</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -1326,34 +1379,35 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2">
+        <f>INVESTIGACION!I17</f>
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <f>PARTICIPACION!F9</f>
         <v>6</v>
       </c>
       <c r="H17" s="2">
-        <f>ASISTENCIA!Q24</f>
-        <v>15</v>
+        <f>ASISTENCIA!Q21</f>
+        <v>14</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -1361,68 +1415,87 @@
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2">
+        <f>INVESTIGACION!I18</f>
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F18" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2">
         <f>PARTICIPACION!F10</f>
         <v>6</v>
       </c>
       <c r="H18" s="2">
-        <f>ASISTENCIA!Q25</f>
-        <v>11</v>
+        <f>ASISTENCIA!Q22</f>
+        <v>17</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6">
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="D19" s="2">
+        <f>INVESTIGACION!I19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>ASISTENCIA!Q23</f>
+        <v>11</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="D20" s="2">
+        <f>INVESTIGACION!I20</f>
+        <v>0</v>
+      </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11">
+        <v>5</v>
+      </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>ASISTENCIA!Q24</f>
+        <v>16</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -1430,34 +1503,35 @@
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2">
+        <f>INVESTIGACION!I21</f>
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2">
         <f>PARTICIPACION!F11</f>
         <v>6</v>
       </c>
       <c r="H21" s="2">
-        <f>ASISTENCIA!Q26</f>
-        <v>16</v>
+        <f>ASISTENCIA!Q25</f>
+        <v>12</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -1465,62 +1539,77 @@
         <v>21</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2">
+        <f>INVESTIGACION!I22</f>
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F22" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
         <f>PARTICIPACION!F12</f>
         <v>7</v>
       </c>
       <c r="H22" s="2">
-        <f>ASISTENCIA!Q27</f>
-        <v>0</v>
+        <f>ASISTENCIA!Q26</f>
+        <v>17</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="13">
-        <f>AVERAGE(D2:D22)</f>
+        <f t="shared" ref="D23:J23" si="1">AVERAGE(D2:D22)</f>
         <v>0</v>
       </c>
       <c r="E23" s="13">
-        <f>AVERAGE(E2:E22)</f>
-        <v>5.5</v>
+        <f t="shared" si="1"/>
+        <v>12.444444444444445</v>
       </c>
       <c r="F23" s="13">
-        <f>AVERAGE(F2:F22)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.5238095238095237</v>
       </c>
       <c r="G23" s="13">
-        <f>AVERAGE(G2:G22)</f>
+        <f t="shared" si="1"/>
         <v>5.3636363636363633</v>
       </c>
       <c r="H23" s="13">
-        <f>AVERAGE(H2:H22)</f>
-        <v>12.157894736842104</v>
+        <f t="shared" si="1"/>
+        <v>13.619047619047619</v>
       </c>
       <c r="I23" s="13">
-        <f>AVERAGE(I2:I22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="13">
-        <f>AVERAGE(J2:J22)</f>
-        <v>2.3684210526315788</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>3.6315789473684212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1534,66 +1623,66 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="11" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="16" width="9.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="12" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="29"/>
+        <v>14</v>
+      </c>
+      <c r="D1" s="28"/>
       <c r="E1" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -1637,95 +1726,95 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="40">
+    <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="39">
         <v>42934</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>42936</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>42941</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>42943</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <v>42948</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="39">
         <v>42950</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>42955</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="39">
         <v>42957</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="39">
         <v>42962</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="39">
         <v>42964</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="39">
         <v>42969</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="39">
         <v>42971</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="39">
         <v>42976</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="39">
         <v>42978</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1736,179 +1825,187 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -1918,179 +2015,187 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -2100,42 +2205,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -2146,88 +2251,90 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2238,180 +2345,186 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -2422,88 +2535,90 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -2514,336 +2629,345 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="34">
         <f t="shared" ref="C27:P27" si="1">COUNTIF(C6:C26,"=P")</f>
         <v>21</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="35">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="35">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="35">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="35">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="35">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="35">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="35">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="35">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="35">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="36">
+        <v>14</v>
+      </c>
+      <c r="N27" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P27" s="37">
+      <c r="P27" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B28" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="35">
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="34">
         <f t="shared" ref="C28:P28" si="2">COUNTIF(C6:C26,"=T")</f>
         <v>0</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="35">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="35">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B29" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="35">
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="34">
         <f t="shared" ref="C29:P29" si="3">COUNTIF(C6:C26,"=F") + COUNTIF(C6:C26,"=")</f>
         <v>0</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="35">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="35">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="35">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="35">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="35">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="35">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="35">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="35">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="35">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M29" s="35">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N29" s="35">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="N29" s="36">
+      <c r="O29" s="35">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="O29" s="36">
+      <c r="P29" s="35">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="P29" s="36">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B30" s="34" t="s">
-        <v>72</v>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2858,119 +2982,1001 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="6" width="11.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0) + G2</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F13" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
+        <v>14</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
+        <v>18</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>18</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <v>16</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <v>14</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <v>14</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <f t="shared" ref="I2:I22" si="0">ROUNDUP(SUM(D2:H2)/4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="B5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="B6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="B7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="B8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="B9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="B10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="B11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2978,863 +3984,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3"/>
-    <col min="5" max="6" width="11.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31">
+        <v>0.36111111111111099</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31">
+        <v>0.38194444444444497</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
-        <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0) + G2</f>
-        <v>6</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <f t="shared" ref="F3:F13" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
-        <v>5</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>12</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>12</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>12</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>12</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>12</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>14</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10">
-        <v>12</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10">
-        <v>14</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10">
-        <v>12</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10">
-        <v>14</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10">
-        <v>18</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10">
-        <v>16</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10">
-        <v>14</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10">
-        <v>14</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10">
-        <v>8</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>23</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="B7" s="31">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="C7" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
-        <f t="shared" ref="H2:H5" si="0">ROUNDUP(SUM(D2:G2)/4,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <f>ROUNDUP(SUM(D6:G6)/4,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" ref="H7:H12" si="1">ROUNDUP(SUM(D7:G7)/4,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3846,14 +4082,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -3879,40 +4115,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="10">
         <v>2</v>
       </c>
@@ -3936,11 +4172,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="10">
         <v>2</v>
       </c>
@@ -3964,11 +4200,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="10">
         <v>2</v>
       </c>
@@ -3992,11 +4228,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="10">
         <v>2</v>
       </c>
@@ -4020,11 +4256,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="10">
         <v>2</v>
       </c>
@@ -4048,11 +4284,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="10">
         <v>2</v>
       </c>
@@ -4076,11 +4312,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="10">
         <v>2</v>
       </c>
@@ -4104,11 +4340,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="10">
         <v>2</v>
       </c>
@@ -4132,11 +4368,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="10">
         <v>2</v>
       </c>
@@ -4160,11 +4396,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="10">
         <v>2</v>
       </c>
@@ -4188,11 +4424,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="10">
         <v>2</v>
       </c>
@@ -4216,11 +4452,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="10">
         <v>2</v>
       </c>
@@ -4252,211 +4488,121 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32">
-        <v>0.31944444444444448</v>
-      </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32">
-        <v>0.34027777777777801</v>
-      </c>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32">
-        <v>0.36111111111111099</v>
-      </c>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32">
-        <v>0.38194444444444497</v>
-      </c>
-      <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32">
-        <v>0.40277777777777801</v>
-      </c>
-      <c r="C7" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="72">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -843,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
@@ -921,7 +921,7 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="H3" s="2">
         <f>ASISTENCIA!Q7</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q8</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H5" s="2">
         <f>ASISTENCIA!Q9</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="H7" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1128,12 +1128,12 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <f>ASISTENCIA!Q12</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="11">
@@ -1211,7 +1211,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f>ASISTENCIA!Q15</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="11">
@@ -1240,7 +1240,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f>ASISTENCIA!Q16</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
@@ -1269,7 +1269,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2">
         <f>ASISTENCIA!Q17</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="11">
@@ -1298,7 +1298,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q18</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
@@ -1327,7 +1327,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q19</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="H16" s="2">
         <f>ASISTENCIA!Q20</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="H18" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1464,7 +1464,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2">
         <f>ASISTENCIA!Q23</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="11"/>
@@ -1490,7 +1490,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2">
         <f>ASISTENCIA!Q24</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="11"/>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="H22" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>13.619047619047619</v>
+        <v>14.476190476190476</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="1"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="J23" s="13">
         <f t="shared" si="1"/>
-        <v>3.6315789473684212</v>
+        <v>3.6842105263157894</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1623,19 +1623,19 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="12" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="14" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="9.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1816,13 +1816,17 @@
       <c r="L6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q26" si="0">ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1865,12 +1869,14 @@
       <c r="M7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1913,12 +1919,14 @@
       <c r="M8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1961,12 +1969,14 @@
       <c r="M9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2006,8 +2016,12 @@
       <c r="L10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="2">
@@ -2055,12 +2069,14 @@
       <c r="M11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2103,12 +2119,14 @@
       <c r="M12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2151,12 +2169,14 @@
       <c r="M13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2196,8 +2216,12 @@
       <c r="L14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="2">
@@ -2242,13 +2266,17 @@
       <c r="L15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2291,12 +2319,14 @@
       <c r="M16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2336,13 +2366,17 @@
       <c r="L17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2385,12 +2419,14 @@
       <c r="M18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2433,12 +2469,14 @@
       <c r="M19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2481,12 +2519,14 @@
       <c r="M20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2526,13 +2566,17 @@
       <c r="L21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2575,12 +2619,14 @@
       <c r="M22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2620,13 +2666,17 @@
       <c r="L23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2669,12 +2719,14 @@
       <c r="M24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2717,7 +2769,9 @@
       <c r="M25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="2">
@@ -2765,12 +2819,14 @@
       <c r="M26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="6"/>
+      <c r="N26" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2823,7 +2879,7 @@
       </c>
       <c r="N27" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O27" s="35">
         <f t="shared" si="1"/>
@@ -2884,7 +2940,7 @@
       </c>
       <c r="N28" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28" s="35">
         <f t="shared" si="2"/>
@@ -2945,7 +3001,7 @@
       </c>
       <c r="N29" s="35">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="O29" s="35">
         <f t="shared" si="3"/>
@@ -2967,6 +3023,9 @@
         <v>43</v>
       </c>
       <c r="M30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="72">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -921,14 +921,14 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="11">
         <f>ROUNDDOWN( D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -957,14 +957,14 @@
       </c>
       <c r="H3" s="2">
         <f>ASISTENCIA!Q7</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J22" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q8</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H5" s="2">
         <f>ASISTENCIA!Q9</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1128,7 +1128,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <f>ASISTENCIA!Q12</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="11">
@@ -1184,7 +1184,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2">
         <f>ASISTENCIA!Q14</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="11">
@@ -1240,7 +1240,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f>ASISTENCIA!Q16</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
@@ -1269,7 +1269,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2">
         <f>ASISTENCIA!Q17</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="11">
@@ -1298,7 +1298,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q18</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="11">
@@ -1327,7 +1327,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q19</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="11">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="H16" s="2">
         <f>ASISTENCIA!Q20</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q21</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="H18" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H21" s="2">
         <f>ASISTENCIA!Q25</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="H22" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>14.476190476190476</v>
+        <v>15.19047619047619</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="1"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="J23" s="13">
         <f t="shared" si="1"/>
-        <v>3.6842105263157894</v>
+        <v>3.7894736842105261</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1624,10 +1624,10 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:N1048576"/>
+      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,11 +1822,13 @@
       <c r="N6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q26" si="0">ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1872,11 +1874,13 @@
       <c r="N7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1922,11 +1926,13 @@
       <c r="N8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1972,11 +1978,13 @@
       <c r="N9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="O9" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2122,11 +2130,13 @@
       <c r="N12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2222,11 +2232,13 @@
       <c r="N14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2322,11 +2334,13 @@
       <c r="N16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2372,11 +2386,13 @@
       <c r="N17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="6"/>
+      <c r="O17" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2422,11 +2438,13 @@
       <c r="N18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2472,11 +2490,13 @@
       <c r="N19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2522,11 +2542,13 @@
       <c r="N20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2572,11 +2594,13 @@
       <c r="N21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="6"/>
+      <c r="O21" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2622,11 +2646,13 @@
       <c r="N22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O22" s="6"/>
+      <c r="O22" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2772,11 +2798,13 @@
       <c r="N25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O25" s="6"/>
+      <c r="O25" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2822,11 +2850,13 @@
       <c r="N26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O26" s="6"/>
+      <c r="O26" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2883,7 +2913,7 @@
       </c>
       <c r="O27" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P27" s="36">
         <f t="shared" si="1"/>
@@ -3005,7 +3035,7 @@
       </c>
       <c r="O29" s="35">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P29" s="35">
         <f t="shared" si="3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="72">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="H7" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1155,12 +1155,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1490,7 +1490,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2">
         <f>ASISTENCIA!Q24</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="11"/>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>15.19047619047619</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="1"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="J23" s="13">
         <f t="shared" si="1"/>
-        <v>3.7894736842105261</v>
+        <v>3.8421052631578947</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1624,10 +1624,10 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="O17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,11 +2080,13 @@
       <c r="N11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2182,11 +2184,13 @@
       <c r="N13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2748,11 +2752,13 @@
       <c r="N24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="6"/>
+      <c r="O24" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2974,7 +2980,7 @@
       </c>
       <c r="O28" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P28" s="35">
         <f t="shared" si="2"/>
@@ -3035,7 +3041,7 @@
       </c>
       <c r="O29" s="35">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P29" s="35">
         <f t="shared" si="3"/>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="74">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>APP</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>EL PROMEDIO ES REFERENCIAL, EL PROMEDIO CORRECTO LO CALCULA EL SISTEMA ACADEMICO.</t>
   </si>
 </sst>
 </file>
@@ -330,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,6 +514,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -841,29 +856,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -895,7 +911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -906,8 +922,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="2">
-        <f>INVESTIGACION!I2</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>18</v>
@@ -921,17 +936,17 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J2" s="11">
         <f>ROUNDDOWN( D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -957,17 +972,17 @@
       </c>
       <c r="H3" s="2">
         <f>ASISTENCIA!Q7</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="11">
-        <f t="shared" ref="J3:J22" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J3:J24" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -978,8 +993,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="2">
-        <f>INVESTIGACION!I4</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>18</v>
@@ -989,21 +1003,21 @@
       </c>
       <c r="G4" s="2">
         <f>PARTICIPACION!F4</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!Q8</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1014,8 +1028,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="2">
-        <f>INVESTIGACION!I5</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>14</v>
@@ -1025,21 +1038,21 @@
       </c>
       <c r="G5" s="2">
         <f>PARTICIPACION!F5</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
         <f>ASISTENCIA!Q9</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1050,8 +1063,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="2">
-        <f>INVESTIGACION!I6</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>14</v>
@@ -1061,21 +1073,24 @@
       </c>
       <c r="G6" s="2">
         <f>PARTICIPACION!F6</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2">
         <f>ASISTENCIA!Q10</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1095,21 +1110,22 @@
       </c>
       <c r="G7" s="2">
         <f>PARTICIPACION!F7</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L7" s="42"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -1118,25 +1134,30 @@
         <v>50</v>
       </c>
       <c r="D8" s="2">
-        <f>INVESTIGACION!I8</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="11">
         <v>10</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <f>PARTICIPACION!F8</f>
+        <v>10</v>
+      </c>
       <c r="H8" s="2">
         <f>ASISTENCIA!Q12</f>
-        <v>14</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="2">
+        <v>16</v>
+      </c>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="L8" s="42"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
@@ -1152,18 +1173,24 @@
       <c r="F9" s="11">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <f>PARTICIPACION!F9</f>
+        <v>6</v>
+      </c>
       <c r="H9" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>14</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
       <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="L9" s="42"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -1172,8 +1199,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="2">
-        <f>INVESTIGACION!I10</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>14</v>
@@ -1181,18 +1207,24 @@
       <c r="F10" s="11">
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <f>PARTICIPACION!F10</f>
+        <v>10</v>
+      </c>
       <c r="H10" s="2">
         <f>ASISTENCIA!Q14</f>
-        <v>11</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I10" s="2">
+        <v>13</v>
+      </c>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>10</v>
@@ -1201,25 +1233,30 @@
         <v>53</v>
       </c>
       <c r="D11" s="2">
-        <f>INVESTIGACION!I11</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="11">
         <v>10</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <f>PARTICIPACION!F11</f>
+        <v>12</v>
+      </c>
       <c r="H11" s="2">
         <f>ASISTENCIA!Q15</f>
-        <v>14</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="I11" s="2">
+        <v>16</v>
+      </c>
       <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>11</v>
@@ -1228,8 +1265,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="2">
-        <f>INVESTIGACION!I12</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
@@ -1237,18 +1273,23 @@
       <c r="F12" s="11">
         <v>18</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <f>PARTICIPACION!F12</f>
+        <v>7</v>
+      </c>
       <c r="H12" s="2">
         <f>ASISTENCIA!Q16</f>
-        <v>16</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="I12" s="2">
+        <v>20</v>
+      </c>
       <c r="J12" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1257,8 +1298,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="2">
-        <f>INVESTIGACION!I13</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -1266,18 +1306,23 @@
       <c r="F13" s="11">
         <v>18</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <f>PARTICIPACION!F13</f>
+        <v>10</v>
+      </c>
       <c r="H13" s="2">
         <f>ASISTENCIA!Q17</f>
-        <v>15</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="I13" s="2">
+        <v>20</v>
+      </c>
       <c r="J13" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -1286,8 +1331,7 @@
         <v>56</v>
       </c>
       <c r="D14" s="2">
-        <f>INVESTIGACION!I14</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
@@ -1295,18 +1339,23 @@
       <c r="F14" s="11">
         <v>18</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <f>PARTICIPACION!F14</f>
+        <v>13</v>
+      </c>
       <c r="H14" s="2">
         <f>ASISTENCIA!Q18</f>
+        <v>18</v>
+      </c>
+      <c r="I14" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -1315,8 +1364,7 @@
         <v>57</v>
       </c>
       <c r="D15" s="2">
-        <f>INVESTIGACION!I15</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
         <v>14</v>
@@ -1324,18 +1372,23 @@
       <c r="F15" s="11">
         <v>12</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <f>PARTICIPACION!F15</f>
+        <v>12</v>
+      </c>
       <c r="H15" s="2">
         <f>ASISTENCIA!Q19</f>
-        <v>16</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="I15" s="2">
+        <v>13</v>
+      </c>
       <c r="J15" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -1346,8 +1399,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="2">
-        <f>INVESTIGACION!I16</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>13</v>
@@ -1356,22 +1408,22 @@
         <v>10</v>
       </c>
       <c r="G16" s="2">
-        <f>PARTICIPACION!F8</f>
-        <v>6</v>
+        <f>PARTICIPACION!F16</f>
+        <v>11</v>
       </c>
       <c r="H16" s="2">
         <f>ASISTENCIA!Q20</f>
+        <v>17</v>
+      </c>
+      <c r="I16" s="2">
         <v>16</v>
       </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
       <c r="J16" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -1382,8 +1434,7 @@
         <v>59</v>
       </c>
       <c r="D17" s="2">
-        <f>INVESTIGACION!I17</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
         <v>13</v>
@@ -1392,22 +1443,22 @@
         <v>10</v>
       </c>
       <c r="G17" s="2">
-        <f>PARTICIPACION!F9</f>
-        <v>6</v>
+        <f>PARTICIPACION!F17</f>
+        <v>9</v>
       </c>
       <c r="H17" s="2">
         <f>ASISTENCIA!Q21</f>
+        <v>17</v>
+      </c>
+      <c r="I17" s="2">
         <v>16</v>
       </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
       <c r="J17" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -1418,8 +1469,7 @@
         <v>60</v>
       </c>
       <c r="D18" s="2">
-        <f>INVESTIGACION!I18</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2">
         <v>18</v>
@@ -1428,22 +1478,22 @@
         <v>10</v>
       </c>
       <c r="G18" s="2">
-        <f>PARTICIPACION!F10</f>
-        <v>6</v>
+        <f>PARTICIPACION!F18</f>
+        <v>18</v>
       </c>
       <c r="H18" s="2">
         <f>ASISTENCIA!Q22</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6">
         <v>18</v>
@@ -1461,15 +1511,23 @@
       <c r="F19" s="11">
         <v>5</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <f>PARTICIPACION!F19</f>
+        <v>14</v>
+      </c>
       <c r="H19" s="2">
         <f>ASISTENCIA!Q23</f>
-        <v>12</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6">
         <v>19</v>
@@ -1487,15 +1545,23 @@
       <c r="F20" s="11">
         <v>5</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <f>PARTICIPACION!F20</f>
+        <v>13</v>
+      </c>
       <c r="H20" s="2">
         <f>ASISTENCIA!Q24</f>
-        <v>18</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2">
+        <v>8</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -1516,22 +1582,22 @@
         <v>5</v>
       </c>
       <c r="G21" s="2">
-        <f>PARTICIPACION!F11</f>
-        <v>6</v>
+        <f>PARTICIPACION!F21</f>
+        <v>7</v>
       </c>
       <c r="H21" s="2">
         <f>ASISTENCIA!Q25</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -1542,8 +1608,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="2">
-        <f>INVESTIGACION!I22</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2">
         <v>18</v>
@@ -1552,25 +1617,25 @@
         <v>10</v>
       </c>
       <c r="G22" s="2">
-        <f>PARTICIPACION!F12</f>
-        <v>7</v>
+        <f>PARTICIPACION!F22</f>
+        <v>8</v>
       </c>
       <c r="H22" s="2">
         <f>ASISTENCIA!Q26</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D23" s="13">
         <f t="shared" ref="D23:J23" si="1">AVERAGE(D2:D22)</f>
-        <v>0</v>
+        <v>11.523809523809524</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="1"/>
@@ -1582,37 +1647,54 @@
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
-        <v>5.3636363636363633</v>
+        <v>10.047619047619047</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>15.333333333333334</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.380952380952381</v>
       </c>
       <c r="J23" s="13">
         <f t="shared" si="1"/>
-        <v>3.8421052631578947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12.285714285714286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
       <c r="E24" s="2">
         <v>13</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="G24" s="2">
+        <f>PARTICIPACION!F24</f>
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <f>ASISTENCIA!Q30</f>
+        <v>10</v>
+      </c>
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L6:L11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1623,23 +1705,22 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="O17" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="14" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="9.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="16" width="9.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -1648,12 +1729,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>37</v>
       </c>
@@ -1682,7 +1763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -1726,7 +1807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
@@ -1779,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1827,11 +1908,11 @@
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="2">
-        <f t="shared" ref="Q6:Q26" si="0">ROUNDUP( 20  - COUNTIF(C6:P6,"") - COUNTIF(D6:P6,"F") - COUNTIF(D6:P6,"T")/2,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <f>ROUNDUP( 20  - COUNTIF(C6:O6,"") - COUNTIF(D6:O6,"F") - COUNTIF(D6:O6,"T")/2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1879,11 +1960,11 @@
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q7:Q26" si="0">ROUNDUP( 20  - COUNTIF(C7:O7,"") - COUNTIF(D7:O7,"F") - COUNTIF(D7:O7,"T")/2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1932,10 +2013,10 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1984,10 +2065,10 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -2030,14 +2111,16 @@
       <c r="N10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -2086,10 +2169,10 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -2138,10 +2221,10 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -2190,10 +2273,10 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -2242,10 +2325,10 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -2288,14 +2371,16 @@
       <c r="N15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2344,10 +2429,10 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2396,10 +2481,10 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -2448,10 +2533,10 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2500,10 +2585,10 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2552,10 +2637,10 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2604,10 +2689,10 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2656,10 +2741,10 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>18</v>
       </c>
@@ -2702,14 +2787,16 @@
       <c r="N23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O23" s="6"/>
+      <c r="O23" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -2758,10 +2845,10 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>20</v>
       </c>
@@ -2810,10 +2897,10 @@
       <c r="P25" s="6"/>
       <c r="Q25" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>21</v>
       </c>
@@ -2862,10 +2949,10 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="33" t="s">
         <v>11</v>
       </c>
@@ -2926,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="33" t="s">
         <v>10</v>
       </c>
@@ -2987,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="33" t="s">
         <v>12</v>
       </c>
@@ -3048,7 +3135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="33" t="s">
         <v>68</v>
       </c>
@@ -3063,6 +3150,10 @@
       </c>
       <c r="N30" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" ref="Q30" si="4">ROUNDUP( 20  - COUNTIF(C30:O30,"") - COUNTIF(D30:O30,"F") - COUNTIF(D30:O30,"T")/2,0)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3080,23 +3171,22 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="6" width="11.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
@@ -3119,7 +3209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3143,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3160,14 +3250,14 @@
         <v>0</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F13" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
+        <f t="shared" ref="F3:F24" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
         <v>5</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3175,7 +3265,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D4" s="12">
         <v>10</v>
@@ -3185,13 +3275,13 @@
       </c>
       <c r="F4" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3199,7 +3289,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5" s="12">
         <v>12</v>
@@ -3209,13 +3299,13 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3223,7 +3313,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -3233,13 +3323,13 @@
       </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3247,7 +3337,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D7" s="12">
         <v>12</v>
@@ -3257,11 +3347,13 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3269,7 +3361,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" s="12">
         <v>12</v>
@@ -3279,11 +3371,13 @@
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G8" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3303,9 +3397,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3313,7 +3409,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" s="12">
         <v>12</v>
@@ -3323,11 +3419,13 @@
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3335,7 +3433,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D11" s="12">
         <v>12</v>
@@ -3345,11 +3443,13 @@
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3373,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3381,7 +3481,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D13" s="10">
         <v>12</v>
@@ -3391,168 +3491,268 @@
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>12</v>
+      </c>
       <c r="D14" s="10">
         <v>14</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10">
+        <v>12</v>
+      </c>
       <c r="D15" s="10">
         <v>12</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10">
+        <v>8</v>
+      </c>
       <c r="D16" s="10">
         <v>14</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
       <c r="D17" s="10">
         <v>18</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="10">
+        <v>18</v>
+      </c>
       <c r="D18" s="10">
         <v>18</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="10">
+        <v>12</v>
+      </c>
       <c r="D19" s="10">
         <v>16</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10">
+        <v>12</v>
+      </c>
       <c r="D20" s="10">
         <v>14</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
       <c r="D21" s="10">
         <v>14</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10">
+        <v>8</v>
+      </c>
       <c r="D22" s="10">
         <v>8</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" s="25"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="B24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="10">
+        <v>10</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3568,17 +3768,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
@@ -3607,7 +3807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3633,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3659,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3685,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3711,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3737,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3763,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3789,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3815,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3841,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3867,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3893,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3911,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3929,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3947,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3965,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3983,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -4001,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -4019,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -4037,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -4055,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -4087,15 +4287,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
@@ -4109,7 +4309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4118,7 +4318,7 @@
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4127,7 +4327,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4136,7 +4336,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4145,7 +4345,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4154,7 +4354,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4174,17 +4374,17 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" customWidth="1"/>
+    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -4210,7 +4410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -4239,341 +4439,161 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10">
-        <v>4</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>2</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <f>SUM(C3:H3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:I14" si="0">SUM(C4:H4)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10">
-        <v>5</v>
-      </c>
-      <c r="I5" s="11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="29"/>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>2</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="10">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10">
-        <v>2</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>4</v>
-      </c>
-      <c r="I9" s="11">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="29"/>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10">
-        <v>5</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="29"/>
-      <c r="C11" s="10">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="10">
-        <v>7</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10">
-        <v>2</v>
-      </c>
-      <c r="G12" s="10">
-        <v>2</v>
-      </c>
-      <c r="H12" s="10">
-        <v>4</v>
-      </c>
-      <c r="I12" s="11">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="10">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
-        <v>2</v>
-      </c>
-      <c r="G13" s="10">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>5</v>
-      </c>
-      <c r="I13" s="11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2</v>
-      </c>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10">
-        <v>2</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4589,113 +4609,113 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>63</v>
       </c>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="74">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -336,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +363,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +529,20 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -858,28 +884,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -911,7 +937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -946,43 +972,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="47">
         <f>INVESTIGACION!I3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="47">
+        <v>10</v>
+      </c>
+      <c r="F3" s="48">
         <v>5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="47">
         <f>PARTICIPACION!F3</f>
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="47">
         <f>ASISTENCIA!Q7</f>
-        <v>13</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11">
+        <v>16</v>
+      </c>
+      <c r="I3" s="47">
+        <v>10</v>
+      </c>
+      <c r="J3" s="48">
         <f t="shared" ref="J3:J24" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1017,7 +1043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1052,7 +1078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1069,63 +1095,63 @@
         <v>14</v>
       </c>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <f>PARTICIPACION!F6</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2">
         <f>ASISTENCIA!Q10</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I6" s="2">
         <v>13</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="47">
         <f>INVESTIGACION!I7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="E7" s="47">
+        <v>10</v>
+      </c>
+      <c r="F7" s="48">
+        <v>12</v>
+      </c>
+      <c r="G7" s="47">
         <f>PARTICIPACION!F7</f>
         <v>12</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="47">
         <f>ASISTENCIA!Q11</f>
         <v>19</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="47">
         <v>8</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="48">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L7" s="42"/>
     </row>
-    <row r="8" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6">
         <v>7</v>
@@ -1157,40 +1183,42 @@
       </c>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="44">
         <f>INVESTIGACION!I9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="11">
+      <c r="E9" s="44">
+        <v>8</v>
+      </c>
+      <c r="F9" s="45">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="44">
         <f>PARTICIPACION!F9</f>
-        <v>6</v>
-      </c>
-      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="44">
         <f>ASISTENCIA!Q13</f>
         <v>15</v>
       </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="I9" s="44">
+        <v>10</v>
+      </c>
+      <c r="J9" s="45">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L9" s="42"/>
     </row>
-    <row r="10" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6">
         <v>9</v>
@@ -1209,7 +1237,7 @@
       </c>
       <c r="G10" s="2">
         <f>PARTICIPACION!F10</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2">
         <f>ASISTENCIA!Q14</f>
@@ -1220,11 +1248,11 @@
       </c>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" s="42"/>
     </row>
-    <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6">
         <v>10</v>
@@ -1256,7 +1284,7 @@
       </c>
       <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6">
         <v>11</v>
@@ -1289,7 +1317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1322,7 +1350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -1355,7 +1383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -1388,7 +1416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -1423,7 +1451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -1458,7 +1486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -1493,7 +1521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6">
         <v>18</v>
@@ -1509,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2">
         <f>PARTICIPACION!F19</f>
@@ -1524,44 +1552,44 @@
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="47">
         <f>INVESTIGACION!I20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="2">
-        <v>10</v>
-      </c>
-      <c r="F20" s="11">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="E20" s="47">
+        <v>10</v>
+      </c>
+      <c r="F20" s="48">
+        <v>12</v>
+      </c>
+      <c r="G20" s="47">
         <f>PARTICIPACION!F20</f>
         <v>13</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="47">
         <f>ASISTENCIA!Q24</f>
         <v>19</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="47">
         <v>8</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="48">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -1572,18 +1600,17 @@
         <v>62</v>
       </c>
       <c r="D21" s="2">
-        <f>INVESTIGACION!I21</f>
         <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="11">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2">
         <f>PARTICIPACION!F21</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2">
         <f>ASISTENCIA!Q25</f>
@@ -1594,10 +1621,10 @@
       </c>
       <c r="J21" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -1632,26 +1659,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="13">
         <f t="shared" ref="D23:J23" si="1">AVERAGE(D2:D22)</f>
         <v>11.523809523809524</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="1"/>
-        <v>12.444444444444445</v>
+        <v>12.736842105263158</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="1"/>
-        <v>9.5238095238095237</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
-        <v>10.047619047619047</v>
+        <v>11.142857142857142</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>16.333333333333332</v>
+        <v>16.61904761904762</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" si="1"/>
@@ -1659,10 +1686,10 @@
       </c>
       <c r="J23" s="13">
         <f t="shared" si="1"/>
-        <v>12.285714285714286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="s">
         <v>69</v>
       </c>
@@ -1672,21 +1699,23 @@
       <c r="E24" s="2">
         <v>13</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
       <c r="G24" s="2">
         <f>PARTICIPACION!F24</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H24" s="2">
         <f>ASISTENCIA!Q30</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I24" s="2">
         <v>10</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1706,21 +1735,21 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="16" width="9.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -1729,12 +1758,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>37</v>
       </c>
@@ -1763,7 +1792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -1807,7 +1836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
@@ -1860,7 +1889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1912,7 +1941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1926,13 +1955,13 @@
         <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>65</v>
@@ -1961,10 +1990,10 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="2">
         <f t="shared" ref="Q7:Q26" si="0">ROUNDUP( 20  - COUNTIF(C7:O7,"") - COUNTIF(D7:O7,"F") - COUNTIF(D7:O7,"T")/2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -2016,7 +2045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -2068,7 +2097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -2091,22 +2120,22 @@
         <v>65</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>65</v>
@@ -2117,10 +2146,10 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -2172,7 +2201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -2224,7 +2253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -2276,7 +2305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -2328,7 +2357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -2380,7 +2409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2432,7 +2461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2484,7 +2513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -2536,7 +2565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2588,7 +2617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2640,7 +2669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2692,7 +2721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2744,7 +2773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>18</v>
       </c>
@@ -2796,7 +2825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -2848,7 +2877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>20</v>
       </c>
@@ -2900,7 +2929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>21</v>
       </c>
@@ -2952,7 +2981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>11</v>
       </c>
@@ -2966,15 +2995,15 @@
       </c>
       <c r="E27" s="35">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" s="35">
         <f t="shared" si="1"/>
@@ -3013,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
         <v>10</v>
       </c>
@@ -3039,7 +3068,7 @@
       </c>
       <c r="H28" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="35">
         <f t="shared" si="2"/>
@@ -3047,19 +3076,19 @@
       </c>
       <c r="J28" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K28" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L28" s="35">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="35">
         <f t="shared" si="2"/>
@@ -3074,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="33" t="s">
         <v>12</v>
       </c>
@@ -3088,19 +3117,19 @@
       </c>
       <c r="E29" s="35">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" s="35">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H29" s="35">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="35">
         <f t="shared" si="3"/>
@@ -3108,19 +3137,19 @@
       </c>
       <c r="J29" s="35">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" s="35">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29" s="35">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" s="35">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N29" s="35">
         <f t="shared" si="3"/>
@@ -3135,12 +3164,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
         <v>68</v>
       </c>
+      <c r="D30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I30" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>43</v>
@@ -3153,7 +3194,7 @@
       </c>
       <c r="Q30" s="1">
         <f t="shared" ref="Q30" si="4">ROUNDUP( 20  - COUNTIF(C30:O30,"") - COUNTIF(D30:O30,"F") - COUNTIF(D30:O30,"T")/2,0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3174,19 +3215,19 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3233,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3247,17 +3288,17 @@
         <v>10</v>
       </c>
       <c r="E3" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F24" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3281,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3305,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3319,17 +3360,17 @@
         <v>0</v>
       </c>
       <c r="E6" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3353,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3377,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3391,17 +3432,17 @@
         <v>12</v>
       </c>
       <c r="E9" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3415,17 +3456,17 @@
         <v>12</v>
       </c>
       <c r="E10" s="12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3449,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3473,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3497,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3521,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3545,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3569,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3593,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3617,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -3641,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -3665,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -3679,17 +3720,17 @@
         <v>14</v>
       </c>
       <c r="E21" s="10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -3713,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -3730,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -3744,11 +3785,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F24" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
@@ -3768,17 +3809,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>9</v>
       </c>
@@ -3807,7 +3848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3833,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3859,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3885,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3911,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3937,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3963,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3989,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -4015,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -4041,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -4067,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -4093,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -4111,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -4129,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -4147,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -4165,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -4183,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -4201,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -4219,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -4237,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -4255,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -4287,15 +4328,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
@@ -4309,7 +4350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4318,7 +4359,7 @@
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4327,7 +4368,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4336,7 +4377,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4345,7 +4386,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4354,7 +4395,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4377,14 +4418,14 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -4410,7 +4451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -4439,7 +4480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -4452,7 +4493,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -4465,7 +4506,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -4478,7 +4519,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -4491,7 +4532,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -4504,7 +4545,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4517,7 +4558,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -4530,7 +4571,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -4543,7 +4584,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4556,7 +4597,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -4569,7 +4610,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4582,7 +4623,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -4609,113 +4650,113 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>63</v>
       </c>

--- a/Doc/Control.xlsx
+++ b/Doc/Control.xlsx
@@ -527,9 +527,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,6 +540,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -887,7 +887,7 @@
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,33 +979,32 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="47">
-        <f>INVESTIGACION!I3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="47">
-        <v>10</v>
-      </c>
-      <c r="F3" s="48">
-        <v>5</v>
-      </c>
-      <c r="G3" s="47">
+      <c r="D3" s="46">
+        <v>15</v>
+      </c>
+      <c r="E3" s="46">
+        <v>10</v>
+      </c>
+      <c r="F3" s="47">
+        <v>8</v>
+      </c>
+      <c r="G3" s="46">
         <f>PARTICIPACION!F3</f>
         <v>10</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="46">
         <f>ASISTENCIA!Q7</f>
         <v>16</v>
       </c>
-      <c r="I3" s="47">
-        <v>10</v>
-      </c>
-      <c r="J3" s="48">
+      <c r="I3" s="46">
+        <v>10</v>
+      </c>
+      <c r="J3" s="47">
         <f t="shared" ref="J3:J24" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1112,7 +1111,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="48" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1121,35 +1120,34 @@
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="47">
-        <f>INVESTIGACION!I7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="47">
-        <v>10</v>
-      </c>
-      <c r="F7" s="48">
+      <c r="D7" s="46">
+        <v>16</v>
+      </c>
+      <c r="E7" s="46">
+        <v>10</v>
+      </c>
+      <c r="F7" s="47">
         <v>12</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="46">
         <f>PARTICIPACION!F7</f>
         <v>12</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="46">
         <f>ASISTENCIA!Q11</f>
         <v>19</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="46">
         <v>8</v>
       </c>
-      <c r="J7" s="48">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L7" s="42"/>
+      <c r="J7" s="47">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -1181,42 +1179,41 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L8" s="42"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="44">
-        <f>INVESTIGACION!I9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="44">
+      <c r="D9" s="43">
+        <v>16</v>
+      </c>
+      <c r="E9" s="43">
         <v>8</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>5</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="43">
         <f>PARTICIPACION!F9</f>
         <v>10</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <f>ASISTENCIA!Q13</f>
         <v>15</v>
       </c>
-      <c r="I9" s="44">
-        <v>10</v>
-      </c>
-      <c r="J9" s="45">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L9" s="42"/>
+      <c r="I9" s="43">
+        <v>10</v>
+      </c>
+      <c r="J9" s="44">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
@@ -1250,7 +1247,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -1282,7 +1279,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L11" s="42"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -1530,8 +1527,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="2">
-        <f>INVESTIGACION!I19</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
@@ -1552,7 +1548,7 @@
       </c>
       <c r="J19" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1560,33 +1556,32 @@
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="47">
-        <f>INVESTIGACION!I20</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="47">
-        <v>10</v>
-      </c>
-      <c r="F20" s="48">
+      <c r="D20" s="46">
+        <v>15</v>
+      </c>
+      <c r="E20" s="46">
+        <v>10</v>
+      </c>
+      <c r="F20" s="47">
         <v>12</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="46">
         <f>PARTICIPACION!F20</f>
         <v>13</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <f>ASISTENCIA!Q24</f>
         <v>19</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <v>8</v>
       </c>
-      <c r="J20" s="48">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="J20" s="47">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1600,7 +1595,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
@@ -1621,7 +1616,7 @@
       </c>
       <c r="J21" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1662,7 +1657,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="13">
         <f t="shared" ref="D23:J23" si="1">AVERAGE(D2:D22)</f>
-        <v>11.523809523809524</v>
+        <v>15.904761904761905</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="1"/>
@@ -1670,7 +1665,7 @@
       </c>
       <c r="F23" s="13">
         <f t="shared" si="1"/>
-        <v>11.333333333333334</v>
+        <v>11.476190476190476</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
@@ -1686,7 +1681,7 @@
       </c>
       <c r="J23" s="13">
         <f t="shared" si="1"/>
-        <v>12.666666666666666</v>
+        <v>14.523809523809524</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -1694,7 +1689,7 @@
         <v>69</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
@@ -1715,7 +1710,7 @@
       </c>
       <c r="J24" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
